--- a/what/kriminalitas/df_result_lda_evaluated.xlsx
+++ b/what/kriminalitas/df_result_lda_evaluated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\what\kriminalitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0314C8ED-157E-4AC3-8944-E8337970A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF2559B-115E-4000-B9B4-A5391B319148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="996">
   <si>
     <t>title_old</t>
   </si>
@@ -1951,9 +1951,6 @@
   </si>
   <si>
     <t>korban, desa, uang, warga, 1, pembunuhan</t>
-  </si>
-  <si>
-    <t>['korban', 'kepala', 'pembunuhan', 'tewas', 'membunuh']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3783,9 +3780,6 @@
     <t>polisi, korban, uang, pria, 1, dituding, gang, ormas, khianat</t>
   </si>
   <si>
-    <t>['korban', 'polisi', 'jalan', 'tersangka', 'membunuh', 'uang', 'mengaku']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Christian Rudolf Tobing (36), si 'pembunuh tersenyum', sempat cekcok dengan_x000D_
@@ -4591,9 +4585,6 @@
   </si>
   <si>
     <t>pelaku, polisi, rumah, langsung, polres, uang, warga, 1, akut</t>
-  </si>
-  <si>
-    <t>['polisi', 'aksi', 'langsung', 'pelaku', 'laporan', 'rumah', 'warga', 'pria']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7178,9 +7169,6 @@
     <t>pelaku, korban, rumah, mobil, keterangan, uang, 1, pemerkosaan, pemerkosa, gang, reskrim, interogasi</t>
   </si>
   <si>
-    <t>['korban', 'ditangkap', 'pelaku', 'pemerkosaan', 'rumah', 'keterangan', 'diduga', 'wanita']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dua pelaku pemerkosaan FJ (23) dan SA (23) ditangkap Tim Jatanras Satuan_x000D_
@@ -7893,9 +7881,6 @@
     <t>pelaku, polisi, korban, rumah, polres, raba, 1, pembunuhan, polresta, kalung, dijerat</t>
   </si>
   <si>
-    <t>['ditemukan', 'korban', 'polisi', 'pasal_kuhp', 'pembunuhan', 'membunuh', 'pelaku', 'mengaku', 'wanita']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Setelah membunuh wanita open BO dan membawa kabur 3 HP dan kalung milik korban_x000D_
@@ -8520,9 +8505,6 @@
   </si>
   <si>
     <t>korban, uang, pembunuhan</t>
-  </si>
-  <si>
-    <t>['korban', 'keluarga', 'pembunuhan', 'pelaku']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -12043,9 +12025,6 @@
     <t>1, arakan</t>
   </si>
   <si>
-    <t>['aksi', 'jalan', 'masuk']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Aremania menyuarakan 'Usut Tuntas Tragedi Kanjuruhan' dengan aksi turun jalan_x000D_
@@ -12172,9 +12151,6 @@
   </si>
   <si>
     <t>fir, langsung, raba, 1, hukum, utang, pembunuhan</t>
-  </si>
-  <si>
-    <t>['pembunuhan', 'langsung', 'membunuh', 'terkait', 'saudara']</t>
   </si>
   <si>
     <t>\-_x000D_
@@ -13653,9 +13629,6 @@
   </si>
   <si>
     <t>pelaku, korban, rumah, bersangkutan, langsung, polres, raba, warga, 1, pembunuhan, polresta, kalung, dijerat</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'pasal_kuhp', 'wanita', 'pembunuhan', 'pelaku']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -15309,9 +15282,6 @@
     <t>pelaku, korban, desa, rumah, anak, pria, 1, rabu, intrik, keji</t>
   </si>
   <si>
-    <t>['korban', 'keluarga', 'pelaku', 'kejadian']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Murtado (27) pembunuh ayah kandung dihadirkan di Lokasi kejadian. Dengan_x000D_
@@ -15959,9 +15929,6 @@
   </si>
   <si>
     <t>keterangan, 1, sidang</t>
-  </si>
-  <si>
-    <t>['sambo', 'ferdy_sambo', 'saksi', 'bharada_richard', 'eliezer', 'sidang', 'masuk', 'hakim', 'putri_candrawathi', 'mulia', 'kejadian', 'keterangan', 'saudara', 'bharada']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -16166,722 +16133,749 @@
  </t>
   </si>
   <si>
-    <t>['sambo', 'pembunuhan', 'kuat_ruf', 'kuat', 'ricky', 'hakim', 'yosua']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'aksi', 'jalan', 'tersangka', 'pembunuhan', 'polri', 'pelaku', 'pasal', 'terkait', 'pembunuhan_berencana']</t>
-  </si>
-  <si>
-    <t>['pemerkosaan', 'menyebut']</t>
-  </si>
-  <si>
-    <t>['pasal', 'pemerkosaan']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'polisi', 'polri', 'terkait', 'menyebut', 'diduga']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'motif', 'korban', 'pasal_kuhp', 'wanita', 'tersangka', 'pembunuhan', 'uang', 'tindak_pidana', 'pasal', 'berinisial', 'diduga', 'mencari', 'pria']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'wanita', 'pembunuhan', 'langsung', 'masuk', 'keluarganya', 'terkait', 'istri', 'saudara', 'mengaku', 'mencari', 'keluarga']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'kuat_ruf', 'saksi', 'uang', 'magelang', 'eliezer', 'juta', 'sidang', 'hakim', 'mulia', 'kuat', 'kuhp', 'anaknya', 'menyebut', 'saudara', 'mengaku', 'motor', 'milik', 'sambo']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'richard', 'kuat_ruf', 'saksi', 'membunuh', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'kali', 'eliezer', 'sidang', 'putri_candrawathi', 'pembunuhan_berencana', 'yosua', 'bharada', 'richard_eliezer', 'menyebut', 'saudara', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'jakarta', 'tkp', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'richard', 'duren', 'langsung', 'polri', 'kuat_ruf', 'pembunuhan_brigadir', 'masuk', 'putri_candrawathi', 'polres', 'pembunuhan_berencana', 'yosua', 'rumah', 'richard_eliezer', 'menyebut', 'saudara', 'mengaku', 'chuck', 'cctv']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'cctv', 'tkp', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'duren', 'polri', 'jaksel', 'pembunuhan_brigadir', 'hendra', 'pasal', 'hendra_kurniawan', 'kuhp', 'menyebut', 'sambo']</t>
-  </si>
-  <si>
-    <t>['korban', 'ditangkap', 'polisi', 'keluarga', 'tersangka', 'langsung', 'pelaku', 'berinisial', 'pemerkosaan', 'polres', 'laporan', 'rumah', 'warga']</t>
-  </si>
-  <si>
-    <t>['tkp', 'langsung', 'pelaku', 'uang', 'perampokan', 'menyebut', 'diduga', 'olah_tkp']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'aksi', 'kali', 'berinisial', 'pemerkosaan', 'informasi', 'diduga']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'cctv', 'ferdy_sambo', 'kondisi', 'pembunuhan', 'brigadir_yosua', 'tewas', 'duren', 'langsung', 'jaksel', 'bharada_richard', 'eliezer', 'jaksa', 'arif', 'masuk', 'yosua', 'laporan', 'menyebut', 'mengaku', 'chuck']</t>
-  </si>
-  <si>
-    <t>['korban', 'aksi', 'pembunuhan', 'polri', 'membunuh', 'kuat', 'menyebut', 'warga']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'terdakwa', 'putri', 'ferdy_sambo', 'keluarga', 'kondisi', 'pembunuhan', 'brigadir_yosua', 'duren', 'kuat_ruf', 'saksi', 'ricky_rizal', 'magelang', 'jaksa', 'hakim', 'putri_candrawathi', 'terkait', 'kuat', 'istri', 'yosua', 'kejadian', 'richard_eliezer', 'menyebut', 'keterangan', 'saudara', 'diduga', 'tim']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'pelaku', 'pasal', 'pemerkosaan', 'istri', 'informasi', 'tim', 'ditangkap', 'pria']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'kuat_ruf', 'jaksel', 'saksi', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'kali', 'eliezer', 'sidang', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'yosua', 'saudara', 'mengaku', 'putri', 'rumah', 'bharada']</t>
-  </si>
-  <si>
-    <t>['sambo', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'kondisi', 'pembunuhan', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'putri_candrawathi', 'kuhp', 'yosua', 'richard_eliezer', 'menyebut']</t>
-  </si>
-  <si>
-    <t>['korban', 'wanita', 'tersangka', 'pelaku', 'kali', 'pasal', 'pemerkosaan', 'diduga']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'kondisi', 'pembunuhan', 'pelaku', 'berinisial', 'keluarganya', 'anaknya', 'informasi', 'mengaku', 'mencari']</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'polisi', 'pencurian', 'masuk', 'putri', 'diduga']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'korban', 'tersangka', 'langsung', 'pelaku', 'pasal', 'berinisial', 'pemerkosaan', 'hakim', 'terkait', 'anaknya']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'rumah_dinas', 'ditemukan', 'cctv', 'tkp', 'luka', 'polisi', 'jalan', 'langsung', 'pelaku', 'uang', 'perampokan', 'kejadian', 'olah_tkp', 'tim']</t>
-  </si>
-  <si>
-    <t>['sambo', 'putri', 'ferdy_sambo', 'ricky', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'eliezer', 'masuk', 'hakim', 'putri_candrawathi', 'mulia', 'istri', 'yosua', 'rumah', 'richard_eliezer', 'keterangan', 'saudara', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'autopsi', 'luka', 'brigadir_yosua', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'bharada_richard', 'eliezer', 'hakim', 'jenazah', 'terkait', 'yosua', 'laporan', 'menyebut', 'saudara', 'informasi', 'olah_tkp']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'luka', 'polisi', 'tewas', 'langsung', 'pelaku', 'berinisial', 'polres', 'keluarganya', 'istri', 'kejadian', 'rumah', 'anaknya', 'polsek', 'keterangan', 'warga', 'motor', 'pria']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'pencurian', 'jaksa', 'sidang', 'istri', 'rumah', 'menyebut', 'informasi', 'milik', 'pencuri']</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'polisi', 'pembunuhan', 'membunuh', 'pelaku', 'uang', 'pasal', 'juta', 'jenazah', 'pembunuhan_berencana']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'jalan', 'kondisi', 'pelaku', 'pencurian', 'berinisial', 'kejadian', 'laporan', 'rumah', 'mencuri', 'warga', 'mengaku', 'pria']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'polisi', 'masuk', 'perampokan', 'kejadian', 'olah_tkp', 'tkp', 'rumah']</t>
-  </si>
-  <si>
-    <t>['polisi', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'duren', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'pemerkosaan', 'hakim', 'putri_candrawathi', 'mulia', 'yosua', 'menyebut', 'saudara', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'jalan', 'kondisi', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'kali', 'juta', 'polres', 'kejadian', 'warga', 'mencari', 'motor']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'tkp', 'korban', 'tersangka', 'pembunuhan', 'terkait', 'magelang']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'ditemukan', 'cctv', 'tkp', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'brigadir_yosua', 'duren', 'polri', 'pembunuhan_brigadir', 'hendra_kurniawan', 'jaksa', 'jenazah', 'terkait', 'agus', 'kejadian', 'laporan', 'rumah', 'tim', 'ketiga', 'hilang', 'saksi', 'yosua']</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'wanita', 'pelaku', 'pencurian', 'perampokan', 'motor', 'pria']</t>
-  </si>
-  <si>
-    <t>['motif', 'korban', 'ditangkap', 'polisi', 'aksi', 'tersangka', 'pelaku', 'pencurian', 'kali', 'terkait', 'mencuri', 'informasi', 'mengaku', 'motor']</t>
-  </si>
-  <si>
-    <t>['cctv', 'polisi', 'saksi', 'pelaku', 'uang', 'pencurian', 'masuk', 'kejadian', 'laporan', 'polsek', 'menyebut', 'keterangan', 'informasi', 'mencari', 'pria', 'motor', 'diduga']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'ditemukan', 'korban', 'pasal_kuhp', 'jalan', 'tersangka', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'kali', 'pasal', 'polres', 'pembunuhan_berencana', 'agus', 'istri', 'rumah', 'diduga', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'aksi', 'kondisi', 'terkait', 'kejadian', 'laporan', 'mengaku', 'olah_tkp', 'milik', 'pencurian']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'ditemukan', 'cctv', 'korban', 'aksi', 'tersangka', 'langsung', 'pelaku', 'pencurian', 'kali', 'berinisial', 'kejadian', 'menyebut', 'tangerang']</t>
-  </si>
-  <si>
-    <t>['korban', 'ditangkap', 'jalan', 'langsung', 'pelaku', 'pemerkosaan', 'rumah', 'warga']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'korban', 'pelaku', 'jaya', 'tindak_pidana', 'pencurian', 'mencuri', 'anaknya']</t>
-  </si>
-  <si>
-    <t>['tkp', 'polisi', 'aksi', 'jalan', 'tersangka', 'pelaku', 'pencurian', 'kuhp', 'mencuri', 'warga', 'mengaku', 'hilang', 'ditangkap', 'juta']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'putri', 'ferdy_sambo', 'pembunuhan', 'brigadir_yosua', 'langsung', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'bharada_richard', 'eliezer', 'masuk', 'mulia', 'kuat', 'pembunuhan_berencana', 'istri', 'yosua', 'mengaku', 'milik', 'rumah']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'pasal_kuhp', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'ricky_rizal', 'magelang', 'bharada_richard', 'eliezer', 'putri_candrawathi', 'mulia', 'pembunuhan_berencana', 'istri', 'yosua', 'kejadian', 'rumah', 'richard_eliezer', 'hakim']</t>
-  </si>
-  <si>
-    <t>['sambo', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'brigadir_yosua', 'polri', 'pembunuhan_brigadir', 'pasal', 'hakim', 'mulia', 'kuhp', 'yosua', 'mengaku', 'chuck', 'sidang']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'luka', 'ditangkap', 'polisi', 'kondisi', 'tersangka', 'tewas', 'langsung', 'pelaku', 'tindak_pidana', 'pemerkosaan', 'polres', 'polsek', 'warga', 'motor', 'pria']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'cctv', 'polisi', 'pelaku', 'terkait', 'perampokan', 'kejadian']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'cctv', 'motif', 'tkp', 'korban', 'ditangkap', 'polisi', 'tersangka', 'saksi', 'pelaku', 'pencurian', 'kali', 'keluarganya', 'terkait', 'kejadian', 'rumah', 'jaksa', 'pencuri']</t>
-  </si>
-  <si>
-    <t>['tkp', 'ditangkap', 'tersangka', 'langsung', 'saksi', 'pelaku', 'jaya', 'berinisial', 'mencuri', 'warga', 'informasi', 'mencari', 'milik', 'pencuri', 'rumah']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'luka', 'polisi', 'jalan', 'tewas', 'langsung', 'saksi', 'polres', 'kejadian', 'laporan', 'polsek', 'diduga', 'warga', 'informasi']</t>
-  </si>
-  <si>
-    <t>['motif', 'korban', 'tersangka', 'pembunuhan', 'pelaku', 'jaksa', 'terkait', 'pembunuhan_berencana', 'istri', 'rumah', 'polisi', 'tewas', 'magelang']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'terdakwa', 'autopsi', 'yosua_hutabarat', 'pembunuhan', 'polri', 'saksi', 'jaksa', 'arif', 'hakim', 'polres', 'mulia', 'agus', 'yosua', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'korban', 'polisi', 'langsung', 'jaya', 'tim', 'keluarga']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'jakarta', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'jalan', 'brigadir_yosua', 'duren', 'polri', 'jaksel', 'saksi', 'ricky_rizal', 'magelang', 'bharada_richard', 'kali', 'eliezer', 'jaksa', 'sidang', 'hakim', 'putri_candrawathi', 'terkait', 'kuat', 'istri', 'yosua', 'rumah', 'saudara', 'mengaku', 'milik']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'autopsi', 'korban', 'polisi', 'kepala', 'keluarga', 'jalan', 'pembunuhan', 'tewas', 'jenazah', 'hilang']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'kepala', 'keluarga', 'kondisi', 'membunuh', 'kejadian', 'rumah', 'anaknya', 'diduga', 'olah_tkp', 'pelaku']</t>
-  </si>
-  <si>
-    <t>['korban', 'kepala', 'tersangka', 'tewas', 'langsung', 'membunuh', 'pelaku', 'kuat', 'kejadian', 'laporan', 'rumah', 'warga', 'pria']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'kepala', 'kondisi', 'pelaku', 'berinisial', 'pemerkosaan', 'kejadian', 'rumah', 'menyebut', 'keterangan', 'warga', 'pria', 'diduga']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'putri', 'pembunuhan', 'brigadir_yosua', 'jaksel', 'saksi', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'rumah', 'richard_eliezer', 'saudara', 'mengaku', 'laporan']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'terdakwa', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'duren', 'polri', 'saksi', 'pembunuhan_brigadir', 'hendra', 'pasal', 'jaksa', 'sidang', 'terkait', 'kuhp', 'yosua', 'irfan', 'menyebut', 'saudara', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['putri', 'ferdy_sambo', 'ricky', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'hakim', 'putri_candrawathi', 'terkait', 'keterangan', 'saudara', 'mengaku', 'sambo', 'istri']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'tkp', 'polisi', 'langsung', 'pelaku', 'uang', 'terkait', 'istri', 'perampokan', 'keterangan', 'mengaku', 'pria', 'rumah']</t>
-  </si>
-  <si>
-    <t>['cctv', 'korban', 'keluarga', 'jalan', 'pelaku', 'pencurian', 'terkait', 'kejadian', 'laporan', 'rumah', 'mencuri', 'keterangan', 'diduga', 'warga', 'informasi', 'pria', 'motor', 'polisi']</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'kepala', 'pelaku', 'pencurian', 'masuk', 'polsek', 'diduga', 'jaksel', 'juta']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'korban', 'polisi', 'pelaku', 'pencurian', 'kali', 'mencuri', 'mengaku', 'mencari', 'ditangkap', 'jaksel']</t>
-  </si>
-  <si>
-    <t>['korban', 'kondisi', 'langsung', 'pelaku', 'uang', 'juta', 'keluarganya', 'kejadian', 'warga', 'pria']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'ditangkap', 'pasal_kuhp', 'wanita', 'pelaku', 'kali', 'pemerkosaan', 'kejadian', 'diduga', 'pasal']</t>
-  </si>
-  <si>
-    <t>['polisi', 'berinisial', 'menyebut']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'pasal_kuhp', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'kondisi', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'jaksel', 'saksi', 'ricky_rizal', 'magelang', 'bharada_richard', 'eliezer', 'sidang', 'putri_candrawathi', 'pembunuhan_berencana', 'yosua', 'kejadian', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['korban', 'pasal_kuhp', 'aksi', 'jalan', 'langsung', 'pelaku', 'uang', 'masuk', 'perampokan', 'kejadian', 'anaknya', 'polsek', 'warga']</t>
-  </si>
-  <si>
-    <t>['korban', 'pasal_kuhp', 'wanita', 'tersangka', 'pelaku', 'tindak_pidana', 'kali', 'pasal', 'pemerkosaan', 'diduga', 'motif']</t>
-  </si>
-  <si>
-    <t>['pasal_kuhp', 'yosua_hutabarat', 'pembunuhan', 'kuat_ruf', 'pasal', 'hakim', 'terkait', 'pembunuhan_berencana', 'richard_eliezer', 'menyebut', 'diduga', 'kuat', 'yosua']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'ditemukan', 'korban', 'luka', 'polisi', 'jalan', 'pembunuhan', 'pelaku', 'berinisial', 'polres', 'warga', 'mengaku', 'tewas']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'kepala', 'polri', 'pelaku', 'tindak_pidana', 'pencurian', 'masuk', 'terkait', 'informasi']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'jalan', 'kali', 'istri', 'kejadian', 'rumah', 'menyebut', 'keterangan', 'informasi', 'mengaku', 'pria', 'tewas']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'luka', 'keluarga', 'jalan', 'pembunuhan', 'langsung', 'saksi', 'kali', 'menyebut', 'warga', 'tewas', 'pria']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'korban', 'pasal_kuhp', 'ferdy_sambo', 'tersangka', 'pembunuhan', 'brigadir_yosua', 'jaksel', 'saksi', 'pelaku', 'tindak_pidana', 'pasal', 'masuk', 'putri_candrawathi', 'keluarganya', 'terkait', 'pembunuhan_berencana', 'menyebut', 'saudara', 'sambo']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'polisi', 'pelaku', 'istri', 'perampokan', 'kejadian', 'rumah', 'informasi', 'olah_tkp']</t>
-  </si>
-  <si>
-    <t>['kepala', 'jalan', 'kondisi', 'pembunuhan', 'membunuh', 'masuk', 'warga']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'richard', 'polri', 'ricky_rizal', 'putri_candrawathi', 'keluarganya', 'kuhp', 'bharada', 'richard_eliezer', 'tim', 'eliezer', 'sidang']</t>
-  </si>
-  <si>
-    <t>['korban', 'tersangka', 'polri', 'saksi', 'pelaku', 'pasal', 'pemerkosaan', 'kuhp', 'menyebut', 'diduga', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['korban', 'wanita', 'pelaku', 'berinisial', 'pemerkosaan', 'terkait', 'kejadian', 'diduga', 'informasi']</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'luka', 'polisi', 'aksi', 'keluarga', 'kondisi', 'pembunuhan', 'membunuh', 'pelaku', 'kali', 'polres', 'kuat', 'kejadian', 'rumah', 'keterangan', 'saudara', 'diduga', 'warga', 'mengaku', 'tim']</t>
-  </si>
-  <si>
-    <t>['korban', 'pembunuhan', 'pelaku', 'rumah', 'milik', 'luka', 'ditangkap']</t>
-  </si>
-  <si>
-    <t>['polisi', 'putri', 'langsung', 'pencurian', 'juta', 'terkait', 'kejadian', 'laporan', 'menyebut', 'diduga', 'hilang']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'autopsi', 'korban', 'luka', 'keluarga', 'wanita', 'kondisi', 'pembunuhan', 'saksi', 'pelaku', 'jenazah', 'keluarganya', 'keterangan', 'warga', 'mencari', 'tangerang', 'tewas']</t>
-  </si>
-  <si>
-    <t>['korban', 'langsung', 'saksi', 'pelaku', 'masuk', 'kejadian', 'polsek', 'mengaku', 'hilang', 'tangerang', 'motor', 'milik']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'jalan', 'kondisi', 'saksi', 'pelaku', 'polres', 'istri', 'perampokan', 'kejadian', 'rumah', 'menyebut', 'keterangan', 'mengaku', 'milik']</t>
-  </si>
-  <si>
-    <t>['cctv', 'aksi', 'jalan', 'pelaku', 'keluarganya', 'kejadian', 'laporan', 'rumah', 'mencuri', 'warga', 'mengaku', 'ketiga', 'hilang', 'motor']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'putri', 'ferdy_sambo', 'pembunuhan', 'brigadir_yosua', 'polri', 'jaksel', 'kali', 'sidang', 'pemerkosaan', 'hakim', 'putri_candrawathi', 'istri', 'yosua', 'laporan', 'richard_eliezer', 'saudara', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'tersangka', 'pembunuhan', 'pelaku', 'pencurian', 'pasal', 'pemerkosaan', 'kuhp', 'kejadian']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'cctv', 'tkp', 'korban', 'luka', 'pembunuhan', 'saksi', 'warga', 'mengaku', 'polisi', 'pria']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'jakarta', 'terdakwa', 'cctv', 'ferdy_sambo', 'perintah', 'pembunuhan', 'brigadir_yosua', 'duren', 'langsung', 'polri', 'pembunuhan_brigadir', 'kali', 'hakim', 'mulia', 'terkait', 'yosua', 'kejadian', 'saudara', 'mengaku', 'chuck', 'sambo']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'korban', 'luka', 'pasal_kuhp', 'jaksel', 'pelaku', 'jaya', 'pencurian', 'kejadian', 'laporan', 'anaknya', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'rumah_dinas', 'korban', 'saksi', 'pelaku', 'kali', 'istri', 'perampokan', 'kejadian', 'diduga', 'informasi', 'rumah']</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'polisi', 'kondisi', 'saksi', 'pencurian', 'masuk', 'laporan', 'menyebut', 'keterangan', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'tkp', 'korban', 'pasal_kuhp', 'keluarga', 'wanita', 'jalan', 'kondisi', 'tersangka', 'pembunuhan', 'tewas', 'pencurian', 'pembunuhan_berencana', 'kuhp', 'kejadian', 'rumah', 'diduga', 'mengaku', 'tangerang']</t>
-  </si>
-  <si>
-    <t>['sambo', 'cctv', 'tkp', 'autopsi', 'polisi', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'kuat_ruf', 'jaksel', 'saksi', 'ricky_rizal', 'sidang', 'hakim', 'putri_candrawathi', 'mulia', 'terkait', 'pembunuhan_berencana', 'kuhp', 'yosua', 'richard_eliezer', 'saudara', 'mengaku', 'olah_tkp']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'kepala', 'pasal_kuhp', 'saksi', 'pelaku', 'kali', 'berinisial', 'perampokan', 'rumah', 'anaknya', 'warga']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'autopsi', 'korban', 'luka', 'polisi', 'keluarga', 'jalan', 'tersangka', 'pembunuhan', 'tewas', 'langsung', 'pelaku', 'istri', 'kejadian', 'mengaku', 'pria']</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'ditangkap', 'polisi', 'jalan', 'tersangka', 'pembunuhan', 'tewas', 'langsung', 'pelaku', 'uang', 'kali', 'berinisial']</t>
-  </si>
-  <si>
-    <t>['pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'ricky_rizal', 'bharada_richard', 'eliezer', 'sidang', 'putri_candrawathi', 'pembunuhan_berencana', 'yosua', 'menyebut', 'kuat']</t>
-  </si>
-  <si>
-    <t>['ditangkap', 'polisi', 'aksi', 'jalan', 'pelaku', 'uang', 'pemerkosaan', 'rumah', 'menyebut']</t>
-  </si>
-  <si>
-    <t>['korban', 'kondisi', 'tewas', 'pelaku', 'kali', 'informasi', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'tersangka', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'jaksel', 'pembunuhan_brigadir', 'sidang', 'hakim', 'putri_candrawathi', 'kuhp', 'yosua', 'menyebut', 'saudara']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'terdakwa', 'ferdy_sambo', 'wanita', 'jaksa', 'sidang', 'hakim', 'kejadian', 'mengaku', 'jaksel']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'polisi', 'jalan', 'kondisi', 'langsung', 'pelaku', 'uang', 'pencurian', 'juta', 'hakim', 'mulia', 'kuhp', 'motor', 'pria']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'putri', 'ferdy_sambo', 'pembunuhan', 'brigadir_yosua', 'richard', 'polri', 'kuat_ruf', 'jaksel', 'magelang', 'kali', 'eliezer', 'hakim', 'putri_candrawathi', 'kuat', 'yosua', 'rumah', 'menyebut', 'mengaku', 'sambo', 'istri']</t>
-  </si>
-  <si>
-    <t>['autopsi', 'korban', 'kepala', 'keluarga', 'pembunuhan', 'polri', 'saksi', 'pelaku', 'kejadian', 'menyebut', 'informasi', 'mengaku', 'mencari', 'milik', 'polisi', 'warga']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'luka', 'polisi', 'wanita', 'kondisi', 'pembunuhan', 'saksi', 'keterangan', 'diduga', 'warga', 'olah_tkp', 'hilang', 'tewas']</t>
-  </si>
-  <si>
-    <t>['sambo', 'ferdy_sambo', 'yosua_hutabarat', 'jalan', 'pembunuhan', 'jaksel', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'hakim', 'putri_candrawathi', 'rumah', 'saudara', 'mengaku', 'putri', 'wanita', 'bharada']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'kondisi', 'pembunuhan', 'duren', 'kuat_ruf', 'jaksel', 'saksi', 'pembunuhan_brigadir', 'magelang', 'eliezer', 'masuk', 'hakim', 'putri_candrawathi', 'mulia', 'kuat', 'yosua', 'kejadian', 'rumah', 'richard_eliezer', 'menyebut', 'mengaku', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'jakarta', 'cctv', 'autopsi', 'luka', 'ferdy_sambo', 'kondisi', 'pembunuhan', 'brigadir_yosua', 'duren', 'polri', 'kuat_ruf', 'arif', 'masuk', 'yosua', 'richard_eliezer', 'keterangan', 'mengaku', 'chuck']</t>
-  </si>
-  <si>
-    <t>['ditangkap', 'polisi', 'pasal_kuhp', 'pelaku', 'pencurian', 'kali', 'diduga', 'mengaku', 'ketiga', 'motor']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'wanita', 'saksi', 'pelaku', 'berinisial', 'pemerkosaan', 'laporan', 'warga', 'pria', 'diduga']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'korban', 'langsung', 'pelaku', 'uang', 'jaya', 'terkait', 'perampokan', 'kejadian', 'laporan', 'keterangan', 'mencari']</t>
-  </si>
-  <si>
-    <t>['wanita', 'kali', 'pemerkosaan', 'terkait', 'laporan', 'menyebut', 'diduga', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'tersangka', 'pemerkosaan', 'kejadian', 'laporan', 'mengaku', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['pembunuhan', 'pembunuhan_brigadir', 'kali', 'hakim', 'putri_candrawathi', 'yosua', 'putri', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['tkp', 'autopsi', 'korban', 'ditangkap', 'polisi', 'wanita', 'kondisi', 'tersangka', 'pembunuhan', 'langsung', 'saksi', 'pelaku', 'jaya', 'berinisial', 'masuk', 'jenazah', 'terkait', 'kejadian', 'diduga', 'warga', 'informasi', 'olah_tkp', 'tim', 'hilang', 'milik', 'aksi']</t>
-  </si>
-  <si>
-    <t>['ditangkap', 'tersangka', 'pelaku', 'pencurian', 'pasal', 'pencuri', 'rumah', 'warga', 'ketiga', 'polisi']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'motif', 'tkp', 'korban', 'polisi', 'kepala', 'pasal_kuhp', 'keluarga', 'pembunuhan', 'saksi', 'membunuh', 'pelaku', 'berinisial', 'terkait', 'pembunuhan_berencana', 'agus', 'diduga', 'warga', 'informasi', 'ketiga', 'pria']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'tersangka', 'membunuh', 'pelaku', 'uang', 'juta', 'berinisial', 'milik', 'tewas']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'terdakwa', 'korban', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'saksi', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'sidang', 'masuk', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'istri', 'yosua', 'menyebut', 'saudara', 'putri', 'bharada']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'luka', 'pasal_kuhp', 'kondisi', 'tersangka', 'pembunuhan', 'tewas', 'langsung', 'membunuh', 'pelaku', 'uang', 'pencurian', 'kejadian', 'rumah', 'motor']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'luka', 'kondisi', 'pelaku', 'pencurian', 'istri', 'perampokan', 'menyebut', 'tim', 'milik', 'rumah']</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'polisi', 'keluarga', 'pelaku', 'uang', 'pencurian', 'berinisial', 'keluarganya', 'mencuri', 'mengaku', 'motor']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'terdakwa', 'ferdy_sambo', 'tersangka', 'pembunuhan', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'sidang', 'putri_candrawathi', 'terkait', 'pembunuhan_berencana', 'kuhp', 'yosua', 'richard_eliezer', 'informasi', 'putri', 'ricky', 'richard', 'kuat']</t>
-  </si>
-  <si>
-    <t>['korban', 'ditangkap', 'pasal_kuhp', 'pelaku', 'pencurian', 'terkait', 'rumah', 'keterangan', 'warga', 'mencari', 'pria']</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'polisi', 'kepala', 'keluarga', 'jalan', 'pembunuhan', 'tewas', 'tindak_pidana', 'pembunuhan_berencana', 'rumah', 'warga', 'informasi']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'kepala', 'pasal_kuhp', 'polri', 'pelaku', 'pasal', 'pemerkosaan', 'kuhp']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'terdakwa', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'keluarga', 'wanita', 'pembunuhan', 'bharada_richard', 'eliezer', 'putri_candrawathi', 'yosua', 'rumah', 'menyebut', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['korban', 'aksi', 'jalan', 'rekonstruksi', 'tersangka', 'pembunuhan', 'pelaku', 'magelang', 'jaksa', 'terkait', 'pembunuhan_berencana', 'kejadian', 'rumah', 'keterangan', 'warga', 'mencari', 'keluarga']</t>
-  </si>
-  <si>
-    <t>['cctv', 'aksi', 'pelaku', 'jaya', 'pencurian', 'terkait', 'menyebut']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'wanita', 'jalan', 'langsung', 'saksi', 'pelaku', 'pencurian', 'hakim', 'kejadian', 'polsek', 'warga', 'mengaku', 'mencari', 'pria', 'motor', 'milik']</t>
-  </si>
-  <si>
-    <t>['korban', 'aksi', 'pelaku', 'pencurian', 'pencuri', 'keterangan', 'tim', 'pria', 'milik', 'cctv']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'cctv', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'keluarga', 'polri', 'membunuh', 'hendra', 'kali', 'hendra_kurniawan', 'arif', 'sidang', 'hakim', 'putri_candrawathi', 'mulia', 'bharada', 'richard_eliezer', 'keterangan', 'tim']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'sambo', 'tkp', 'kepala', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'jalan', 'pembunuhan', 'richard', 'duren', 'langsung', 'kuat_ruf', 'jaksel', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'masuk', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'istri', 'yosua', 'richard_eliezer']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'polisi', 'wanita', 'pelaku', 'pencurian', 'kali', 'berinisial', 'rumah', 'mencuri', 'polsek', 'warga', 'mengaku', 'pria']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'pasal_kuhp', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'ricky_rizal', 'magelang', 'bharada_richard', 'eliezer', 'putri_candrawathi', 'mulia', 'pembunuhan_berencana', 'istri', 'yosua', 'kejadian', 'rumah', 'richard_eliezer', 'mengaku', 'hakim']</t>
-  </si>
-  <si>
-    <t>['sambo', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'putri_candrawathi', 'terkait', 'kuat', 'istri', 'kuhp', 'yosua', 'richard_eliezer', 'menyebut', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'jakarta', 'ditemukan', 'motif', 'korban', 'keluarga', 'pembunuhan', 'jenazah', 'terkait', 'istri', 'informasi', 'milik']</t>
-  </si>
-  <si>
-    <t>['korban', 'tersangka', 'langsung', 'pelaku', 'kali', 'kejadian', 'laporan', 'warga', 'informasi', 'mencari', 'tim', 'motor', 'wanita']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'kondisi', 'pelaku', 'kali', 'terkait', 'laporan', 'rumah', 'menyebut', 'diduga', 'warga', 'tim']</t>
-  </si>
-  <si>
-    <t>['autopsi', 'korban', 'polisi', 'keluarga', 'tersangka', 'pembunuhan', 'tewas', 'pelaku', 'berinisial', 'kejadian', 'polsek', 'informasi', 'olah_tkp', 'terkait']</t>
-  </si>
-  <si>
-    <t>['ditangkap', 'polisi', 'kepala', 'jalan', 'pelaku', 'pencurian', 'juta', 'masuk', 'terkait', 'kuhp', 'kejadian', 'laporan', 'olah_tkp', 'uang']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'ditangkap', 'polisi', 'kepala', 'wanita', 'tindak_pidana', 'pemerkosaan', 'istri', 'diduga', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'tersangka', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'pembunuhan_brigadir', 'sidang', 'hakim', 'putri_candrawathi', 'kuhp', 'yosua']</t>
-  </si>
-  <si>
-    <t>['sambo', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'membunuh', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'sidang', 'putri_candrawathi', 'kuat', 'pembunuhan_berencana', 'yosua', 'richard_eliezer', 'menyebut', 'keterangan', 'saudara', 'mengaku', 'ricky', 'bharada']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'jalan', 'pelaku', 'juta', 'perampokan', 'keterangan', 'warga', 'masuk', 'mengaku', 'pria']</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'tersangka', 'pembunuhan', 'berinisial', 'jenazah', 'rumah', 'warga', 'informasi', 'polisi', 'saksi']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'luka', 'polisi', 'aksi', 'pelaku', 'pemerkosaan', 'masuk', 'terkait', 'istri', 'polsek', 'pria']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'jakarta', 'pasal_kuhp', 'ferdy_sambo', 'keluarga', 'pembunuhan', 'tewas', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'eliezer', 'pasal', 'sidang', 'putri_candrawathi', 'mulia', 'keluarganya', 'terkait', 'richard_eliezer', 'informasi']</t>
-  </si>
-  <si>
-    <t>['ditangkap', 'polisi', 'jalan', 'tersangka', 'pelaku', 'pencurian', 'pasal', 'perampokan', 'kuhp', 'warga', 'tim']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'tkp', 'korban', 'luka', 'kepala', 'jalan', 'kondisi', 'pembunuhan', 'langsung', 'polri', 'kali', 'polsek', 'diduga', 'warga', 'pria', 'polisi']</t>
-  </si>
-  <si>
-    <t>['polisi', 'pelaku', 'uang', 'juta', 'perampokan', 'menyebut', 'motor', 'milik']</t>
-  </si>
-  <si>
-    <t>['tersangka', 'pencurian', 'kejadian', 'irfan', 'menyebut', 'diduga', 'hilang', 'terkait']</t>
-  </si>
-  <si>
-    <t>['ditangkap', 'polisi', 'aksi', 'keluarga', 'jalan', 'kali', 'pemerkosaan', 'polres', 'laporan', 'anaknya', 'warga', 'mengaku', 'pria']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'polisi', 'ferdy_sambo', 'perintah', 'pembunuhan', 'brigadir_yosua', 'terkait', 'saudara']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'korban', 'tersangka', 'uang', 'tindak_pidana', 'kali', 'sidang', 'berinisial', 'pemerkosaan', 'istri', 'rumah', 'anaknya']</t>
-  </si>
-  <si>
-    <t>['motif', 'korban', 'luka', 'polisi', 'aksi', 'wanita', 'tersangka', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'kali', 'istri', 'kejadian', 'warga']</t>
-  </si>
-  <si>
-    <t>['korban', 'polri', 'pelaku', 'pemerkosaan', 'kuhp', 'menyebut']</t>
-  </si>
-  <si>
-    <t>['langsung', 'pencurian', 'kejadian', 'laporan', 'menyebut', 'olah_tkp', 'hilang', 'milik']</t>
-  </si>
-  <si>
-    <t>['korban', 'pelaku', 'pencurian', 'berinisial', 'polsek', 'warga', 'motor']</t>
-  </si>
-  <si>
-    <t>['polisi', 'aksi', 'langsung', 'pemerkosaan', 'kejadian', 'mencuri', 'warga', 'milik', 'pria']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'ditemukan', 'tkp', 'ditangkap', 'polisi', 'saksi', 'pelaku', 'polres', 'olah_tkp']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'korban', 'pelaku', 'tindak_pidana', 'pemerkosaan']</t>
-  </si>
-  <si>
-    <t>['motif', 'korban', 'polisi', 'pembunuhan', 'saksi', 'membunuh', 'pelaku', 'berinisial', 'terkait', 'diduga', 'magelang']</t>
-  </si>
-  <si>
-    <t>['korban', 'pasal_kuhp', 'tersangka', 'langsung', 'pelaku', 'uang', 'tindak_pidana', 'pencurian', 'juta', 'berinisial', 'kuhp', 'laporan', 'warga', 'informasi', 'pria', 'milik', 'polisi', 'jalan']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'pasal_kuhp', 'ferdy_sambo', 'pembunuhan', 'ricky_rizal', 'pembunuhan_brigadir', 'sidang', 'putri_candrawathi', 'kuhp', 'yosua', 'richard_eliezer', 'informasi', 'sambo', 'saksi']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'terdakwa', 'cctv', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'pembunuhan_brigadir', 'hendra', 'hendra_kurniawan', 'jaksa', 'arif', 'putri_candrawathi', 'terkait', 'yosua', 'keterangan', 'informasi', 'mengaku', 'chuck']</t>
-  </si>
-  <si>
-    <t>['korban', 'ditangkap', 'pelaku', 'pencurian', 'pasal', 'berinisial', 'polres', 'perampokan', 'laporan', 'polsek', 'saudara', 'diduga', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'tkp', 'korban', 'rekonstruksi', 'tersangka', 'pembunuhan', 'membunuh', 'jaya', 'kali']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'terdakwa', 'cctv', 'ferdy_sambo', 'tersangka', 'pembunuhan', 'brigadir_yosua', 'richard', 'duren', 'polri', 'bharada_richard', 'kali', 'eliezer', 'pasal', 'istri', 'kuhp', 'yosua', 'bharada', 'menyebut', 'keterangan', 'saudara', 'mengaku', 'chuck']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'keluarga', 'jalan', 'kejadian', 'rumah', 'diduga', 'informasi', 'mengaku', 'hilang']</t>
-  </si>
-  <si>
-    <t>['korban', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'richard', 'saksi', 'membunuh', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'sidang', 'hakim', 'mulia', 'terkait', 'yosua', 'bharada', 'menyebut', 'keterangan', 'saudara']</t>
-  </si>
-  <si>
-    <t>['sambo', 'cctv', 'pasal_kuhp', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'duren', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'bharada_richard', 'kali', 'eliezer', 'jaksa', 'hakim', 'putri_candrawathi', 'mulia', 'terkait', 'kuat', 'kuhp', 'kejadian', 'rumah', 'saudara', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['motif', 'tkp', 'korban', 'ditangkap', 'polisi', 'kepala', 'aksi', 'kondisi', 'tersangka', 'pembunuhan', 'tewas', 'langsung', 'saksi', 'membunuh', 'pelaku', 'kali', 'berinisial', 'kuat', 'perampokan', 'kejadian', 'rumah', 'anaknya', 'polsek', 'menyebut', 'diduga', 'warga', 'hilang', 'motor']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'ditemukan', 'cctv', 'korban', 'luka', 'langsung', 'pelaku', 'kali', 'masuk', 'istri', 'perampokan', 'rumah', 'mengaku', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['korban', 'ditangkap', 'polisi', 'kondisi', 'pelaku', 'uang', 'berinisial', 'masuk', 'rumah', 'anaknya', 'polsek', 'warga', 'mengaku', 'pria']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'jakarta', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'tewas', 'kuat_ruf', 'saksi', 'ricky_rizal', 'magelang', 'sidang', 'putri_candrawathi', 'pembunuhan_berencana', 'istri', 'kuhp', 'yosua', 'irfan', 'richard_eliezer', 'keterangan', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'tkp', 'ferdy_sambo', 'wanita', 'pembunuhan', 'richard', 'kuat_ruf', 'saksi', 'pembunuhan_brigadir', 'bharada_richard', 'kali', 'eliezer', 'putri_candrawathi', 'kejadian', 'rumah', 'keterangan', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'jakarta', 'terdakwa', 'cctv', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'perintah', 'pembunuhan', 'tewas', 'richard', 'duren', 'langsung', 'kuat_ruf', 'saksi', 'ricky_rizal', 'uang', 'pembunuhan_brigadir', 'magelang', 'kali', 'eliezer', 'pasal', 'sidang', 'masuk', 'hakim', 'putri_candrawathi', 'mulia', 'terkait', 'kuat', 'istri', 'yosua', 'rumah', 'richard_eliezer', 'menyebut', 'keterangan', 'saudara', 'mengaku', 'hilang']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'kepala', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'jaksel', 'saksi', 'pembunuhan_brigadir', 'magelang', 'sidang', 'hakim', 'putri_candrawathi', 'mulia', 'kuat', 'istri', 'richard_eliezer', 'menyebut', 'mengaku', 'sambo']</t>
-  </si>
-  <si>
-    <t>['cctv', 'aksi', 'kondisi', 'pelaku', 'uang', 'pencurian', 'juta', 'masuk', 'kejadian', 'polsek', 'hilang', 'milik']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'luka', 'polisi', 'pembunuhan', 'saksi', 'pelaku', 'berinisial', 'kejadian', 'diduga', 'warga', 'hilang', 'wanita']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'ferdy_sambo', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'jaksel', 'saksi', 'ricky_rizal', 'bharada_richard', 'kali', 'hakim', 'putri_candrawathi', 'terkait', 'kuat', 'informasi']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'jakarta', 'ditemukan', 'terdakwa', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'keluarga', 'pembunuhan', 'tewas', 'duren', 'polri', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'jaksa', 'masuk', 'putri_candrawathi', 'yosua', 'richard_eliezer', 'menyebut']</t>
-  </si>
-  <si>
-    <t>['putri', 'ferdy_sambo', 'ricky', 'pembunuhan', 'brigadir_yosua', 'polri', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'masuk', 'hakim', 'putri_candrawathi', 'saudara', 'mengaku', 'sambo', 'istri', 'yosua']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'terdakwa', 'cctv', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'brigadir_yosua', 'duren', 'polri', 'jaksel', 'pembunuhan_brigadir', 'hendra', 'hendra_kurniawan', 'hakim', 'jenazah', 'terkait', 'agus', 'yosua', 'kejadian', 'rumah', 'irfan', 'menyebut', 'saudara', 'mengaku', 'sambo']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'terdakwa', 'uang', 'pencurian', 'juta', 'agus', 'rumah', 'mencuri', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'ditangkap', 'polisi', 'keluarga', 'kondisi', 'pembunuhan', 'tewas', 'langsung', 'membunuh', 'pelaku', 'magelang', 'polres', 'terkait', 'kejadian', 'rumah', 'anaknya', 'keterangan', 'saudara', 'diduga', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'korban', 'ditangkap', 'tersangka', 'langsung', 'pelaku', 'tindak_pidana', 'pasal', 'sidang', 'pemerkosaan', 'masuk', 'hakim', 'terkait', 'kejadian', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['ditangkap', 'langsung', 'pelaku', 'pencurian', 'kali', 'polres', 'laporan', 'rumah', 'mencuri', 'warga', 'informasi', 'mengaku', 'motor', 'pria']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'cctv', 'ferdy_sambo', 'perintah', 'pembunuhan', 'brigadir_yosua', 'langsung', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'bharada_richard', 'eliezer', 'jaksa', 'hakim', 'mulia', 'terkait', 'menyebut', 'keterangan', 'saudara', 'sambo', 'sidang']</t>
-  </si>
-  <si>
-    <t>['cctv', 'tkp', 'korban', 'polisi', 'pasal_kuhp', 'wanita', 'saksi', 'pelaku', 'pencurian', 'berinisial', 'kuhp', 'kejadian', 'laporan', 'polsek', 'keterangan', 'tim', 'ketiga', 'tangerang', 'ditangkap', 'pencuri']</t>
-  </si>
-  <si>
-    <t>['pasal_kuhp', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'eliezer', 'putri_candrawathi', 'mulia', 'kuat', 'istri', 'yosua', 'rumah', 'richard_eliezer', 'mengaku', 'mencari', 'putri']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'jakarta', 'motif', 'luka', 'polisi', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'tersangka', 'pembunuhan', 'tewas', 'polri', 'kuat_ruf', 'membunuh', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'putri_candrawathi', 'terkait', 'kuat', 'pembunuhan_berencana', 'yosua', 'rumah', 'richard_eliezer', 'menyebut']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'rumah_dinas', 'cctv', 'luka', 'polisi', 'kondisi', 'polri', 'pelaku', 'pencurian', 'masuk', 'istri', 'perampokan', 'diduga', 'informasi', 'olah_tkp', 'rumah']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'aksi', 'pelaku', 'pencurian', 'mengaku', 'hilang', 'pria', 'milik', 'cctv', 'wanita', 'mencuri']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'putri', 'yosua_hutabarat', 'pembunuhan', 'polri', 'kuat_ruf', 'ricky_rizal', 'bharada_richard', 'kali']</t>
-  </si>
-  <si>
-    <t>['sambo', 'motif', 'ferdy_sambo', 'keluarga', 'wanita', 'pembunuhan', 'brigadir_yosua', 'saksi', 'eliezer', 'hakim', 'putri_candrawathi', 'terkait', 'istri', 'yosua', 'richard_eliezer', 'keterangan', 'diduga', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'ferdy_sambo', 'yosua_hutabarat', 'perintah', 'tersangka', 'pembunuhan', 'jaksel', 'pembunuhan_brigadir', 'sidang', 'hakim', 'jenazah', 'agus', 'saudara']</t>
-  </si>
-  <si>
-    <t>['sambo', 'rumah_dinas', 'jakarta', 'terdakwa', 'korban', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'tewas', 'richard', 'langsung', 'kuat_ruf', 'saksi', 'ricky_rizal', 'magelang', 'putri_candrawathi', 'terkait', 'pembunuhan_berencana', 'kuhp', 'yosua', 'richard_eliezer', 'keterangan', 'sidang']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'ferdy_sambo', 'pembunuhan', 'polri', 'pembunuhan_brigadir', 'tindak_pidana', 'sidang', 'terkait']</t>
-  </si>
-  <si>
-    <t>['sambo', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'perintah', 'kondisi', 'pembunuhan', 'kuat_ruf', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'tindak_pidana', 'bharada_richard', 'eliezer', 'jaksa', 'putri_candrawathi', 'kuat', 'pembunuhan_berencana', 'kuhp', 'yosua', 'kejadian', 'richard_eliezer', 'diduga', 'mengaku', 'mencari', 'milik', 'hakim']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'korban', 'aksi', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'hakim', 'kejadian', 'warga']</t>
-  </si>
-  <si>
-    <t>['sambo', 'ditemukan', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'kuat_ruf', 'saksi', 'pembunuhan_brigadir', 'bharada_richard', 'eliezer', 'putri_candrawathi', 'kuhp', 'yosua', 'menyebut', 'keterangan']</t>
-  </si>
-  <si>
-    <t>['sambo', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'putri_candrawathi', 'terkait', 'kuat', 'istri', 'yosua', 'saudara']</t>
-  </si>
-  <si>
-    <t>['jalan', 'pelaku', 'hendra', 'pencurian', 'pencuri', 'terkait', 'laporan', 'warga', 'informasi']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'motif', 'korban', 'polisi', 'pelaku', 'uang', 'pencurian', 'pencuri', 'berinisial', 'keterangan', 'informasi', 'jaksa']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'tersangka', 'pelaku', 'kali', 'pemerkosaan', 'warga', 'mengaku', 'pria', 'istri']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'autopsi', 'korban', 'luka', 'polisi', 'pembunuhan', 'pelaku', 'kali', 'masuk', 'polres', 'terkait', 'kuat', 'kejadian', 'rumah', 'diduga', 'warga', 'hilang', 'tewas']</t>
-  </si>
-  <si>
-    <t>['cctv', 'pelaku', 'pencurian', 'olah_tkp', 'hilang']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'terdakwa', 'motif', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'wanita', 'pembunuhan', 'brigadir_yosua', 'richard', 'jaksel', 'bharada_richard', 'eliezer', 'sidang', 'putri_candrawathi', 'istri', 'yosua', 'rumah', 'bharada', 'richard_eliezer', 'menyebut', 'keterangan', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'korban', 'polisi', 'kondisi', 'tersangka', 'pembunuhan', 'tewas', 'kali', 'berinisial', 'polres', 'istri', 'anaknya', 'menyebut', 'pria']</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'polisi', 'saksi', 'pencurian', 'pencuri', 'olah_tkp']</t>
-  </si>
-  <si>
-    <t>['rumah_dinas', 'terdakwa', 'motif', 'tkp', 'korban', 'pasal_kuhp', 'ferdy_sambo', 'yosua_hutabarat', 'tersangka', 'pembunuhan', 'duren', 'kuat_ruf', 'saksi', 'ricky_rizal', 'pelaku', 'pembunuhan_brigadir', 'tindak_pidana', 'bharada_richard', 'kali', 'jaksa', 'arif', 'masuk', 'putri_candrawathi', 'terkait', 'kuat', 'kuhp', 'yosua', 'laporan', 'bharada', 'tim', 'sambo', 'ricky', 'perintah', 'sidang']</t>
-  </si>
-  <si>
-    <t>['sambo', 'ferdy_sambo', 'ricky', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'polri', 'magelang', 'hakim', 'putri_candrawathi', 'yosua', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'polisi', 'langsung', 'pencurian', 'masuk', 'laporan', 'putri']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'korban', 'ditangkap', 'polisi', 'keluarga', 'kondisi', 'pembunuhan', 'tewas', 'membunuh', 'pelaku', 'hakim', 'pembunuhan_berencana', 'anaknya', 'warga', 'jalan']</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'polisi', 'putri', 'wanita', 'pelaku', 'pencurian', 'polres', 'mencuri', 'keterangan', 'warga', 'mengaku', 'ketiga', 'cctv']</t>
-  </si>
-  <si>
-    <t>['korban', 'kondisi', 'tersangka', 'langsung', 'pelaku', 'kali', 'pasal', 'polres', 'kejadian', 'rumah']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'kondisi', 'pembunuhan', 'tewas', 'langsung', 'saksi', 'pelaku', 'pencurian', 'berinisial', 'perampokan', 'rumah', 'polsek', 'mencari', 'tim', 'ditemukan']</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'ditangkap', 'jalan', 'langsung', 'saksi', 'pelaku', 'uang', 'tindak_pidana', 'pencurian', 'pasal', 'agus', 'kejadian', 'mencuri', 'informasi', 'mengaku', 'tim', 'ketiga', 'hilang', 'pria', 'milik', 'pencuri']</t>
-  </si>
-  <si>
-    <t>['terdakwa', 'yosua_hutabarat', 'pembunuhan', 'langsung', 'polri', 'jaksel', 'saksi', 'pembunuhan_brigadir', 'hendra', 'hendra_kurniawan', 'jaksa', 'hakim', 'mulia', 'terkait', 'laporan', 'irfan', 'menyebut', 'saudara']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'putri', 'ferdy_sambo', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'jaksel', 'ricky_rizal', 'pembunuhan_brigadir', 'bharada_richard', 'kali', 'eliezer', 'jaksa', 'putri_candrawathi', 'kuat', 'bharada']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'rumah_dinas', 'korban', 'luka', 'kepala', 'pasal_kuhp', 'pelaku', 'pasal', 'juta', 'masuk', 'terkait', 'istri', 'perampokan', 'kejadian', 'menyebut', 'keterangan', 'warga']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'perintah', 'pembunuhan', 'richard', 'langsung', 'polri', 'kuat_ruf', 'saksi', 'ricky_rizal', 'pembunuhan_brigadir', 'kali', 'hakim', 'kuat', 'yosua', 'richard_eliezer', 'keterangan', 'saudara', 'ketiga', 'sidang']</t>
-  </si>
-  <si>
-    <t>['tkp', 'polisi', 'pelaku', 'uang', 'pencurian', 'juta', 'tim', 'ketiga', 'motor']</t>
-  </si>
-  <si>
-    <t>['istrinya', 'motif', 'korban', 'luka', 'polisi', 'kepala', 'kondisi', 'pembunuhan', 'membunuh', 'pelaku', 'kali', 'istri', 'keterangan', 'milik', 'pria']</t>
-  </si>
-  <si>
-    <t>['sambo', 'jakarta', 'terdakwa', 'pasal_kuhp', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'pembunuhan', 'brigadir_yosua', 'richard', 'kuat_ruf', 'ricky_rizal', 'magelang', 'sidang', 'hakim', 'putri_candrawathi', 'pembunuhan_berencana', 'kuhp', 'yosua', 'laporan', 'richard_eliezer', 'keterangan', 'saudara', 'milik']</t>
-  </si>
-  <si>
-    <t>['sambo', 'terdakwa', 'ferdy_sambo', 'ricky', 'yosua_hutabarat', 'keluarga', 'pembunuhan', 'brigadir_yosua', 'polri', 'ricky_rizal', 'pembunuhan_brigadir', 'magelang', 'hakim', 'putri_candrawathi', 'rumah', 'anaknya', 'menyebut', 'saudara', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'polisi', 'jalan', 'saksi', 'berinisial', 'masuk', 'informasi', 'mengaku', 'tangerang', 'tewas', 'diduga']</t>
+    <t>['berinisial', 'pembunuhan', 'diduga', 'ditemukan', 'putri', 'tindak_pidana', 'pasal_kuhp', 'tersangka', 'kejadian', 'pria', 'korban', 'motif', 'jalan', 'hukum']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'terkait', 'keluarga', 'langsung', 'saudara', 'masuk']</t>
+  </si>
+  <si>
+    <t>['kuat', 'mengaku', 'saksi', 'magelang', 'ricky', 'pasal_kuhp', 'kuat_ruf', 'eliezer', 'sidang', 'sambo', 'ferdy_sambo', 'juta', 'hakim', 'milik', 'motor', 'saudara', 'terdakwa', 'kuhp']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'jaksa', 'saksi', 'pasal_kuhp', 'perkara', 'saudara', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'richard', 'hakim', 'ricky_rizal', 'sidang', 'membunuh', 'yosua_hutabarat', 'bharada']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'tkp', 'polri', 'pasal_kuhp', 'rumah_dinas', 'saudara', 'masuk', 'pembunuhan', 'kuat_ruf', 'yosua', 'richard', 'langsung', 'chuck', 'sidang', 'yosua_hutabarat', 'rumah']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'diduga', 'ditemukan', 'keluarga', 'kejadian', 'korban', 'lpsk', 'rumah', 'jalan', 'hukum']</t>
+  </si>
+  <si>
+    <t>['santoso', 'kuat', 'pembunuhan', 'pembunuhan_brigadir', 'sidang', 'kuat_ruf', 'ricky', 'yosua', 'sambo', 'hakim']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'hendra', 'pembunuhan_brigadir', 'cctv', 'polri', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'pasal', 'kuhp', 'tkp', 'terdakwa', 'agus']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pemerkosaan', 'mobil', 'polisi', 'tersangka', 'keluarga', 'korban', 'warga', 'rumah', 'ditangkap', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['santoso', 'diduga', 'wali_blitar', 'perampok', 'wali', 'perampokan', 'blitar', 'milik', 'langsung', 'olah_tkp', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'persidangan', 'jaksa', 'saksi', 'korban', 'saudara', 'pembunuhan', 'ricky', 'yosua', 'eliezer', 'lpsk', 'richard', 'hakim', 'terkait', 'sidang', 'membunuh', 'yosua_hutabarat', 'bharada']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pemerkosaan', 'polisi', 'diduga', 'korban', 'perempuan']</t>
+  </si>
+  <si>
+    <t>['masuk', 'mengaku', 'jaksa', 'pembunuhan', 'cctv', 'yosua', 'eliezer', 'sambo', 'ferdy_sambo', 'tewas', 'rumah', 'langsung', 'chuck', 'terdakwa', 'arif']</t>
+  </si>
+  <si>
+    <t>['kuat', 'pembunuhan', 'polri', 'membunuh', 'kejadian', 'korban', 'tewas', 'tni', 'warga']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'diduga', 'dugaan', 'ferdy_sambo', 'putri_candrawathi', 'kekerasan_seksual', 'richard_eliezer', 'terdakwa', 'kuat', 'jaksa', 'saksi', 'kejadian', 'perkara', 'tim', 'saudara', 'hukum', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'keluarga', 'yosua', 'hakim', 'ricky_rizal', 'terkait', 'sidang']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pemerkosaan', 'polisi', 'pria', 'korban', 'pasal', 'ditangkap', 'langsung', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'saksi', 'pasal_kuhp', 'perkara', 'saudara', 'pembunuhan', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'rumah', 'bharada']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'pembunuhan_brigadir', 'ricky_rizal', 'pasal_kuhp', 'kuat_ruf', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'perkara', 'kuhp', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['pidana', 'mengaku', 'pemerkosaan', 'diduga', 'tersangka', 'korban', 'pasal', 'andika', 'tni', 'pelaku', 'hukum']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'mengaku', 'polisi', 'korban', 'rumah', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuat', 'polri', 'pasal_kuhp', 'kejadian', 'perkara', 'kuhp', 'saudara', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'terkait', 'yosua_hutabarat', 'rumah']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'polisi', 'diduga', 'putri', 'dugaan', 'luka', 'korban', 'solo', 'langsung', 'pencurian', 'masuk']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pemerkosaan', 'terkait', 'sidang', 'tersangka', 'keluarga', 'pria', 'korban', 'perkara', 'hakim', 'ketiga', 'langsung', 'pelaku', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['polisi', 'diduga', 'dugaan', 'tewas', 'jenazah', 'olah_tkp', 'pelaku', 'berinisial', 'kuat', 'saksi', 'kejadian', 'perampokan', 'korban', 'motor', 'polsek', 'masuk', 'pembunuhan', 'langsung', 'tersangka', 'membunuh', 'warga', 'rumah', 'motif', 'ditangkap']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'diduga', 'cctv', 'luka', 'milik', 'olah_tkp', 'tkp', 'pelaku', 'mobil', 'wali_blitar', 'kejadian', 'perampokan', 'blitar', 'tim', 'rumah_dinas', 'masuk', 'santoso', 'perampok', 'langsung', 'ditemukan', 'wali', 'jalan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'mobil', 'saudara', 'masuk', 'pembunuhan', 'magelang', 'ricky', 'putri', 'keluarga', 'eliezer', 'kuat_ruf', 'yosua', 'richard', 'hakim', 'ricky_rizal', 'rumah']</t>
+  </si>
+  <si>
+    <t>['santoso', 'mengaku', 'ditemukan', 'cctv', 'wali_blitar', 'perampok', 'wali', 'luka', 'perampokan', 'korban', 'blitar', 'juta', 'rumah', 'milik', 'ketiga', 'langsung', 'pelaku', 'masuk']</t>
+  </si>
+  <si>
+    <t>['korban', 'pembunuhan', 'membunuh', 'tewas']</t>
+  </si>
+  <si>
+    <t>['autopsi', 'ricky_rizal', 'ditemukan', 'terkait', 'polri', 'kuat_ruf', 'yosua', 'eliezer', 'luka', 'ferdy_sambo', 'putri_candrawathi', 'jenazah', 'hakim', 'olah_tkp', 'saudara', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'langsung', 'polisi', 'luka', 'kejadian', 'pria', 'korban', 'tewas', 'warga', 'rumah', 'motor', 'pelaku', 'polsek']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'mengaku', 'polisi', 'pria', 'korban', 'warga', 'rumah', 'ditangkap', 'pelaku', 'polsek', 'masuk']</t>
+  </si>
+  <si>
+    <t>['persidangan', 'jaksa', 'sidang', 'perkara', 'rumah', 'milik', 'ditangkap', 'motif', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pidana', 'polisi', 'pembunuhan', 'tkp', 'membunuh', 'juta', 'korban', 'pasal', 'jenazah', 'milik', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'mengaku', 'polisi', 'hukum', 'kejadian', 'pria', 'korban', 'mencuri', 'warga', 'rumah', 'jalan', 'pelaku', 'pencurian', 'masuk']</t>
+  </si>
+  <si>
+    <t>['santoso', 'mobil', 'polisi', 'wali', 'kejadian', 'perampokan', 'blitar', 'rumah', 'olah_tkp', 'tkp', 'rumah_dinas', 'masuk']</t>
+  </si>
+  <si>
+    <t>['santoso', 'pembunuhan', 'mengaku', 'pemerkosaan', 'polisi', 'pembunuhan_brigadir', 'ricky_rizal', 'polri', 'putri', 'kuat_ruf', 'yosua_hutabarat', 'yosua', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'kekerasan_seksual', 'saudara']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polisi', 'ditemukan', 'membunuh', 'kejadian', 'juta', 'korban', 'jalan', 'tewas', 'warga', 'motif', 'motor', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'richard_eliezer', 'terdakwa', 'jaksa', 'polri', 'pasal_kuhp', 'irfan', 'kuhp', 'rumah_dinas', 'pembunuhan', 'magelang', 'kuat_ruf', 'yosua', 'pidana', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'magelang', 'ditemukan', 'terkait', 'tersangka', 'korban', 'tewas', 'olah_tkp']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'cctv', 'ferdy_sambo', 'jenazah', 'tkp', 'jaksa', 'saksi', 'polri', 'kejadian', 'ketiga', 'tim', 'rumah_dinas', 'pembunuhan', 'yosua', 'keluarga', 'agus', 'ditemukan', 'terkait', 'yosua_hutabarat', 'rumah']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'luka', 'pria', 'perampokan', 'korban', 'motor', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'mengaku', 'polisi', 'terkait', 'tersangka', 'dugaan', 'korban', 'mencuri', 'warga', 'motif', 'ditangkap', 'motor', 'pelaku', 'polsek']</t>
+  </si>
+  <si>
+    <t>['polisi', 'saksi', 'diduga', 'cctv', 'terkait', 'dugaan', 'kejadian', 'pria', 'pelaku', 'pencurian', 'masuk']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'diduga', 'ditemukan', 'pasal_kuhp', 'tersangka', 'membunuh', 'korban', 'pasal', 'tewas', 'warga', 'rumah', 'jalan', 'pelaku', 'agus']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'mobil', 'mengaku', 'polisi', 'terkait', 'kejadian', 'korban', 'milik', 'olah_tkp', 'polsek']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'cctv', 'ditemukan', 'polri', 'tersangka', 'kejadian', 'korban', 'langsung', 'pelaku', 'pencurian', 'hukum']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'korban', 'jalan', 'warga', 'rumah', 'ditangkap', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pidana', 'tindak_pidana', 'korban', 'mencuri', 'perkara', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'tkp', 'diduga', 'ditangkap', 'tersangka', 'pria', 'juta', 'mencuri', 'jalan', 'warga', 'ketiga', 'kuhp', 'pelaku', 'pencurian', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'perempuan', 'putri_candrawathi', 'tkp', 'terdakwa', 'persidangan', 'mobil', 'saksi', 'kejadian', 'perkara', 'pembunuhan', 'kuat_ruf', 'yosua', 'eliezer', 'lpsk', 'richard', 'langsung', 'rumah', 'bharada']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'milik', 'terdakwa', 'kuat', 'mobil', 'masuk', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'langsung', 'ricky_rizal', 'sidang', 'rumah']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuat', 'pasal_kuhp', 'kejadian', 'masuk', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'rumah']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'hendra', 'pembunuhan_brigadir', 'cctv', 'polri', 'sidang', 'yosua_hutabarat', 'yosua', 'sambo', 'ferdy_sambo', 'pasal', 'hakim', 'kuhp', 'chuck', 'saudara', 'terdakwa', 'hukum']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'polisi', 'ditemukan', 'tindak_pidana', 'tersangka', 'luka', 'pria', 'motor', 'korban', 'tewas', 'warga', 'jenazah', 'kekerasan_seksual', 'ditangkap', 'langsung', 'pelaku', 'polsek']</t>
+  </si>
+  <si>
+    <t>['mobil', 'polisi', 'cctv', 'terkait', 'perampok', 'kejadian', 'perampokan', 'blitar', 'pelaku', 'rumah_dinas', 'masuk']</t>
+  </si>
+  <si>
+    <t>['polisi', 'saksi', 'jaksa', 'tkp', 'cctv', 'terkait', 'tersangka', 'wali', 'kejadian', 'korban', 'rumah', 'motif', 'ditangkap', 'pelaku', 'pencurian', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'tersangka', 'membunuh', 'korban', 'rekonstruksi', 'jalan']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'saksi', 'tkp', 'tersangka', 'keluarga', 'mencuri', 'jalan', 'warga', 'milik', 'rumah', 'ditangkap', 'langsung', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['polisi', 'saksi', 'diduga', 'ditemukan', 'luka', 'kejadian', 'korban', 'jalan', 'tewas', 'warga', 'langsung', 'polsek']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'tewas', 'richard_eliezer', 'terdakwa', 'kuat', 'jaksa', 'saksi', 'pasal_kuhp', 'rumah_dinas', 'saudara', 'santoso', 'masuk', 'pembunuhan', 'magelang', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'richard', 'hakim', 'langsung', 'pidana', 'ricky_rizal', 'terkait', 'sidang', 'rumah', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'jaksa', 'polisi', 'magelang', 'terkait', 'tersangka', 'korban', 'tewas', 'rumah', 'motif', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['masuk', 'mengaku', 'autopsi', 'jaksa', 'saksi', 'pembunuhan', 'polri', 'yosua_hutabarat', 'yosua', 'arif', 'hakim', 'tim', 'terdakwa', 'agus']</t>
+  </si>
+  <si>
+    <t>['polisi', 'ditemukan', 'keluarga', 'korban', 'langsung', 'tim']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'dugaan', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'richard_eliezer', 'kuat', 'saksi', 'perkara', 'saudara', 'pembunuhan', 'magelang', 'putri', 'hakim', 'terkait', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'milik', 'kuat', 'mobil', 'jaksa', 'saksi', 'polri', 'rumah_dinas', 'saudara', 'masuk', 'magelang', 'ricky', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat', 'rumah', 'jalan']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polisi', 'autopsi', 'ditemukan', 'keluarga', 'korban', 'tewas', 'jenazah', 'jalan']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'mobil', 'kejadian', 'juta', 'milik', 'pelaku', 'polsek', 'masuk']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'mengaku', 'polisi', 'pria', 'warga', 'rumah', 'langsung', 'pelaku', 'polsek']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'polisi', 'saksi', 'diduga', 'ditemukan', 'dugaan', 'luka', 'kejadian', 'pria', 'korban', 'tewas', 'warga', 'jenazah', 'rumah', 'motif', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['polisi', 'diduga', 'membunuh', 'keluarga', 'kejadian', 'pria', 'korban', 'rumah', 'langsung', 'olah_tkp', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['kuat', 'saksi', 'pembunuhan', 'ricky_rizal', 'terkait', 'kuat_ruf', 'terdakwa', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'persidangan', 'saudara']</t>
+  </si>
+  <si>
+    <t>['kuat', 'polisi', 'tersangka', 'membunuh', 'kejadian', 'pria', 'korban', 'perkara', 'tewas', 'warga', 'rumah', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pemerkosaan', 'polisi', 'diduga', 'polsek', 'keluarga', 'kejadian', 'pria', 'korban', 'perempuan', 'warga', 'rumah', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'saksi', 'putri', 'yosua', 'terdakwa', 'sambo', 'putri_candrawathi', 'lpsk', 'hakim', 'rumah', 'richard_eliezer', 'saudara']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'pasal', 'terdakwa', 'jaksa', 'saksi', 'polri', 'perkara', 'irfan', 'kuhp', 'rumah_dinas', 'saudara', 'hukum', 'pembunuhan', 'yosua', 'hendra', 'terkait', 'sidang', 'yosua_hutabarat']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'richard_eliezer', 'terdakwa', 'jaksa', 'polri', 'rumah_dinas', 'masuk', 'pembunuhan', 'ricky', 'kuat_ruf', 'keluarga', 'eliezer', 'yosua', 'richard', 'ricky_rizal', 'ditemukan', 'sidang', 'yosua_hutabarat']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'ricky_rizal', 'ricky', 'putri', 'kuat_ruf', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'saudara', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'jenazah', 'terdakwa', 'mobil', 'polri', 'kejadian', 'perkara', 'irfan', 'motor', 'rumah_dinas', 'saudara', 'pembunuhan', 'yosua', 'hakim', 'agus', 'hendra', 'terkait', 'yosua_hutabarat', 'rumah', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'mobil', 'ditemukan', 'juta', 'mencuri', 'rumah', 'milik', 'pencurian', 'terdakwa', 'agus']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'terkait', 'ricky', 'putri', 'kuat_ruf', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'saudara']</t>
+  </si>
+  <si>
+    <t>['santoso', 'mengaku', 'mobil', 'polisi', 'tkp', 'terkait', 'wali_blitar', 'perampok', 'wali', 'pria', 'perampokan', 'blitar', 'rumah', 'langsung', 'pelaku', 'rumah_dinas']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'polisi', 'diduga', 'ditemukan', 'magelang', 'terkait', 'membunuh', 'keluarga', 'kejadian', 'korban', 'perempuan', 'tewas', 'rumah', 'ketiga', 'langsung', 'ditangkap', 'saudara']</t>
+  </si>
+  <si>
+    <t>['polisi', 'diduga', 'cctv', 'terkait', 'keluarga', 'kejadian', 'pria', 'korban', 'mencuri', 'perkara', 'warga', 'rumah', 'ditangkap', 'jalan', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pasal', 'kekerasan_seksual', 'pelaku', 'terdakwa', 'pemerkosaan', 'tindak_pidana', 'kejadian', 'korban', 'perkara', 'ketiga', 'masuk', 'keluarga', 'hakim', 'langsung', 'terkait', 'sidang', 'tersangka', 'rumah', 'ditangkap']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'tkp', 'diduga', 'perampok', 'juta', 'korban', 'perkara', 'pelaku', 'polsek', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'korban', 'mencuri', 'ditangkap', 'motor', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['kejadian', 'pria', 'korban', 'juta', 'warga', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'pria', 'motor', 'mencuri', 'warga', 'rumah', 'ditangkap', 'langsung', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pidana', 'pemerkosaan', 'diduga', 'pasal_kuhp', 'kejadian', 'solo', 'andika', 'pasal', 'ditangkap', 'kuhp', 'pelaku', 'hukum']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'polisi', 'saksi', 'wali', 'hukum']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'jaksa', 'polri', 'saudara', 'pembunuhan', 'kuat_ruf', 'eliezer', 'hakim', 'langsung', 'pidana', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pencurian', 'mobil', 'polisi', 'saksi', 'tkp', 'cctv', 'polsek', 'ditangkap', 'pasal_kuhp', 'kejadian', 'korban', 'ketiga', 'kuhp', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'terdakwa', 'saksi', 'pasal_kuhp', 'kejadian', 'perkara', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'ricky_rizal', 'sidang', 'yosua_hutabarat']</t>
+  </si>
+  <si>
+    <t>['kuat', 'mengaku', 'pembunuhan', 'magelang', 'ricky', 'pasal_kuhp', 'putri', 'eliezer', 'kuat_ruf', 'yosua_hutabarat', 'ferdy_sambo', 'yosua', 'putri_candrawathi', 'rumah', 'richard_eliezer']</t>
+  </si>
+  <si>
+    <t>['masuk', 'mobil', 'pasal_kuhp', 'perampok', 'kejadian', 'perampokan', 'korban', 'jalan', 'warga', 'langsung', 'pelaku', 'polsek', 'agus']</t>
+  </si>
+  <si>
+    <t>['polisi', 'pembunuhan_brigadir', 'sambo', 'luka', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'richard_eliezer', 'kuat', 'polri', 'pasal_kuhp', 'kuhp', 'rumah_dinas', 'hukum', 'pembunuhan', 'magelang', 'kuat_ruf', 'yosua', 'pidana', 'ricky_rizal', 'terkait', 'tersangka', 'membunuh', 'yosua_hutabarat', 'rumah', 'motif', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'diduga', 'tindak_pidana', 'pasal_kuhp', 'dugaan', 'tersangka', 'korban', 'pasal', 'andika', 'motif', 'pelaku', 'hukum']</t>
+  </si>
+  <si>
+    <t>['kuat', 'pembunuhan', 'diduga', 'terkait', 'pasal_kuhp', 'kuat_ruf', 'eliezer', 'yosua_hutabarat', 'yosua', 'pasal', 'perkara', 'hakim']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'mengaku', 'polisi', 'ditemukan', 'luka', 'kejadian', 'korban', 'perempuan', 'tewas', 'warga', 'jenazah', 'motif', 'jalan', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pidana', 'polri', 'terkait', 'tindak_pidana', 'hukum', 'pelaku', 'pencurian', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'keluarga', 'kejadian', 'pria', 'korban', 'tewas', 'rumah', 'jalan']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'saksi', 'diduga', 'ditemukan', 'keluarga', 'luka', 'pria', 'korban', 'jalan', 'tewas', 'warga', 'jenazah', 'langsung', 'tim']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'kekerasan_seksual', 'pelaku', 'terdakwa', 'saksi', 'tindak_pidana', 'pasal_kuhp', 'korban', 'saudara', 'masuk', 'pembunuhan', 'putri', 'lpsk', 'pidana', 'terkait', 'sidang', 'tersangka', 'yosua_hutabarat']</t>
+  </si>
+  <si>
+    <t>['santoso', 'polisi', 'wali_blitar', 'perampok', 'wali', 'kejadian', 'perampokan', 'blitar', 'rumah', 'olah_tkp', 'pelaku', 'rumah_dinas']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'membunuh', 'perempuan', 'warga', 'jalan', 'masuk']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'bharada', 'ricky_rizal', 'pembunuhan_brigadir', 'sidang', 'pasal_kuhp', 'keluarga', 'yosua_hutabarat', 'eliezer', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'kuhp', 'richard_eliezer', 'tim', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'mobil', 'diduga', 'korban', 'perempuan', 'rumah', 'ditangkap', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['langsung', 'mengaku', 'pemerkosaan', 'polisi', 'saksi', 'diduga', 'polri', 'tindak_pidana', 'tersangka', 'korban', 'perempuan', 'pasal', 'andika', 'tni', 'kuhp', 'pelaku', 'hukum']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pemerkosaan', 'diduga', 'terkait', 'dugaan', 'kejadian', 'korban', 'perempuan', 'warga', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'diduga', 'dugaan', 'luka', 'tkp', 'pelaku', 'kuat', 'kejadian', 'korban', 'tim', 'saudara', 'masuk', 'pembunuhan', 'keluarga', 'membunuh', 'warga', 'rumah', 'motif']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polisi', 'luka', 'korban', 'perempuan', 'rumah', 'milik', 'ditangkap', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'polisi', 'diduga', 'terkait', 'putri', 'tindak_pidana', 'dugaan', 'kejadian', 'solo', 'milik', 'langsung', 'tkp', 'tim', 'masuk']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mobil', 'autopsi', 'polisi', 'saksi', 'ditemukan', 'keluarga', 'dugaan', 'luka', 'korban', 'tewas', 'warga', 'jenazah', 'motif', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'saksi', 'kejadian', 'motor', 'korban', 'milik', 'langsung', 'pelaku', 'polsek', 'masuk']</t>
+  </si>
+  <si>
+    <t>['santoso', 'mengaku', 'mobil', 'polisi', 'saksi', 'wali_blitar', 'perampok', 'wali', 'kejadian', 'perampokan', 'juta', 'blitar', 'rumah', 'milik', 'jalan', 'pelaku', 'tim', 'rumah_dinas']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'cctv', 'kejadian', 'mencuri', 'jalan', 'perempuan', 'warga', 'rumah', 'ketiga', 'motor', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'mengaku', 'polisi', 'ditemukan', 'pasal_kuhp', 'membunuh', 'korban', 'rumah', 'ditangkap', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'pemerkosaan', 'polisi', 'magelang', 'polri', 'putri', 'sidang', 'yosua', 'ferdy_sambo', 'korban', 'putri_candrawathi', 'hakim', 'kekerasan_seksual', 'richard_eliezer', 'saudara']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polri', 'terkait', 'tersangka', 'pasal', 'rekonstruksi', 'jalan', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'pemerkosaan', 'tkp', 'ditemukan', 'tersangka', 'kejadian', 'korban', 'jalan', 'perempuan', 'pasal', 'kekerasan_seksual', 'kuhp', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'polisi', 'saksi', 'cctv', 'ditemukan', 'luka', 'pria', 'korban', 'warga', 'tkp']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'cctv', 'terkait', 'polri', 'rumah_dinas', 'sambo', 'kejadian', 'ferdy_sambo', 'hakim', 'langsung', 'chuck', 'saudara', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'luka', 'kejadian', 'korban', 'pasal', 'kuhp', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['polisi', 'saksi', 'diduga', 'terkait', 'wali_blitar', 'dugaan', 'wali', 'kejadian', 'perampokan', 'korban', 'blitar', 'rumah', 'pelaku', 'rumah_dinas']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'saksi', 'dugaan', 'luka', 'korban', 'solo', 'pencurian', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'diduga', 'tewas', 'milik', 'tkp', 'mobil', 'pasal_kuhp', 'korban', 'solo', 'kuhp', 'pembunuhan', 'keluarga', 'ditemukan', 'tersangka', 'warga', 'rumah', 'motif', 'jalan', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['korban', 'pembunuhan', 'keluarga', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['polisi', 'diduga', 'polri', 'cctv', 'wali_blitar', 'perampok', 'wali', 'luka', 'perampokan', 'blitar', 'rumah', 'langsung', 'olah_tkp', 'pelaku', 'pencurian', 'rumah_dinas', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'cctv', 'ditemukan', 'pria', 'mencuri', 'perempuan', 'rumah', 'milik', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'olah_tkp', 'richard_eliezer', 'tkp', 'terdakwa', 'saksi', 'autopsi', 'pasal_kuhp', 'kuhp', 'saudara', 'pembunuhan', 'kuat_ruf', 'hakim', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'saksi', 'pasal_kuhp', 'perampok', 'perampokan', 'korban', 'warga', 'rumah', 'ditangkap', 'pelaku', 'masuk']</t>
+  </si>
+  <si>
+    <t>['kuat', 'pembunuhan', 'ricky_rizal', 'polri', 'putri', 'kuat_ruf', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'persidangan', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'autopsi', 'polisi', 'ditemukan', 'putri', 'tersangka', 'keluarga', 'luka', 'kejadian', 'pria', 'korban', 'jalan', 'tewas', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'polisi', 'tersangka', 'luka', 'korban', 'jalan', 'tewas', 'ditangkap', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['kuat', 'saksi', 'pembunuhan', 'persidangan', 'ricky_rizal', 'sidang', 'pasal_kuhp', 'kuat_ruf', 'eliezer', 'yosua_hutabarat', 'yosua', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'bharada']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pemerkosaan', 'polisi', 'rumah', 'ditangkap', 'jalan', 'pelaku', 'polsek']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'korban', 'tewas', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'polri', 'pasal_kuhp', 'perkara', 'kuhp', 'saudara', 'santoso', 'pembunuhan', 'yosua', 'hakim', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'jaksa', 'sidang', 'sambo', 'kejadian', 'ferdy_sambo', 'hakim', 'langsung', 'tim', 'terdakwa', 'masuk']</t>
+  </si>
+  <si>
+    <t>['polisi', 'pria', 'motor', 'juta', 'jalan', 'perkara', 'hakim', 'langsung', 'pelaku', 'pencurian', 'terdakwa', 'kuhp']</t>
+  </si>
+  <si>
+    <t>['diduga', 'dugaan', 'sambo', 'ferdy_sambo', 'perempuan', 'putri_candrawathi', 'richard_eliezer', 'saksi', 'ketiga', 'pembunuhan', 'putri', 'yosua', 'keluarga', 'eliezer', 'hakim', 'pidana', 'terkait', 'motif', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'jenazah', 'terdakwa', 'polri', 'perkara', 'saudara', 'pembunuhan', 'yosua', 'hakim', 'agus', 'terkait', 'sidang', 'yosua_hutabarat', 'rumah', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['kuat', 'mengaku', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'hakim', 'rumah', 'bharada', 'terdakwa', 'masuk']</t>
+  </si>
+  <si>
+    <t>['sambo', 'ferdy_sambo', 'putri_candrawathi', 'tewas', 'richard_eliezer', 'terdakwa', 'jaksa', 'saksi', 'pasal_kuhp', 'korban', 'kuhp', 'rumah_dinas', 'pembunuhan', 'magelang', 'ricky', 'kuat_ruf', 'yosua', 'lpsk', 'richard', 'langsung', 'pidana', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'autopsi', 'saksi', 'polisi', 'polri', 'terkait', 'keluarga', 'dugaan', 'kejadian', 'korban', 'tewas', 'warga', 'milik', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polisi', 'saksi', 'diduga', 'ditemukan', 'luka', 'pria', 'korban', 'tewas', 'warga', 'olah_tkp']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'saksi', 'pembunuhan_brigadir', 'putri', 'yosua_hutabarat', 'eliezer', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'rumah', 'jalan', 'bharada', 'saudara']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'pembunuhan_brigadir', 'polri', 'terkait', 'sidang', 'tindak_pidana', 'sambo', 'ferdy_sambo', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'kuat', 'mobil', 'saksi', 'kejadian', 'ketiga', 'saudara', 'masuk', 'pembunuhan', 'magelang', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'yosua_hutabarat', 'rumah']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'luka', 'ferdy_sambo', 'tewas', 'richard_eliezer', 'autopsi', 'polri', 'rumah_dinas', 'masuk', 'arif', 'pembunuhan', 'kuat_ruf', 'yosua', 'hakim', 'chuck', 'terkait', 'rumah']</t>
+  </si>
+  <si>
+    <t>['masuk', 'mengaku', 'polisi', 'diduga', 'ditangkap', 'milik', 'ketiga', 'motor', 'pelaku', 'pencurian', 'kuhp']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pemerkosaan', 'polisi', 'saksi', 'tkp', 'diduga', 'pria', 'korban', 'warga', 'rumah', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['terkait', 'perampok', 'kejadian', 'perampokan', 'korban', 'jalan', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'diduga', 'terkait', 'dugaan', 'ketiga']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pemerkosaan', 'tersangka', 'kejadian', 'ketiga']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'pembunuhan_brigadir', 'putri', 'yosua', 'putri_candrawathi', 'hakim']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'diduga', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'milik', 'kuat', 'tindak_pidana', 'pasal_kuhp', 'kejadian', 'kuhp', 'pembunuhan', 'magelang', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal']</t>
+  </si>
+  <si>
+    <t>['polisi', 'diduga', 'perempuan', 'jenazah', 'milik', 'olah_tkp', 'tkp', 'pelaku', 'berinisial', 'mobil', 'autopsi', 'saksi', 'kejadian', 'korban', 'polsek', 'tim', 'masuk', 'pembunuhan', 'langsung', 'ditemukan', 'terkait', 'tersangka', 'warga', 'ditangkap']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polisi', 'ditemukan', 'sidang', 'membunuh', 'kejadian', 'korban', 'tewas', 'warga', 'hakim', 'pelaku', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['pidana', 'polisi', 'ditangkap', 'tersangka', 'pasal', 'warga', 'rumah', 'ketiga', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'saksi', 'pembunuhan_brigadir', 'ditemukan', 'sidang', 'pasal_kuhp', 'kuat_ruf', 'eliezer', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'yosua', 'putri_candrawathi', 'perkara', 'lpsk', 'kuhp', 'persidangan', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['polisi', 'diduga', 'tewas', 'tkp', 'pelaku', 'berinisial', 'saksi', 'pasal_kuhp', 'korban', 'ketiga', 'kuhp', 'pembunuhan', 'keluarga', 'pria', 'agus', 'ditemukan', 'terkait', 'membunuh', 'warga', 'motif', 'ditangkap']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'tersangka', 'membunuh', 'juta', 'korban', 'tewas', 'milik', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'saksi', 'pasal_kuhp', 'korban', 'perkara', 'saudara', 'masuk', 'pembunuhan', 'putri', 'kuat_ruf', 'yosua', 'eliezer', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'bharada']</t>
+  </si>
+  <si>
+    <t>['langsung', 'pembunuhan', 'ditemukan', 'pasal_kuhp', 'tersangka', 'membunuh', 'luka', 'kejadian', 'korban', 'jalan', 'tewas', 'rumah', 'ketiga', 'motor', 'pelaku', 'pencurian', 'kuhp']</t>
+  </si>
+  <si>
+    <t>['santoso', 'pencurian', 'wali_blitar', 'perampok', 'wali', 'luka', 'perampokan', 'juta', 'blitar', 'milik', 'rumah', 'langsung', 'pelaku', 'tim', 'rumah_dinas']</t>
+  </si>
+  <si>
+    <t>['kuat', 'jaksa', 'pembunuhan', 'pembunuhan_brigadir', 'ricky_rizal', 'terkait', 'putri', 'kuat_ruf', 'keluarga', 'yosua_hutabarat', 'sambo', 'yosua', 'ferdy_sambo', 'putri_candrawathi', 'persidangan', 'saudara']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'mengaku', 'polisi', 'tkp', 'keluarga', 'korban', 'mencuri', 'motor', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'kuat', 'pembunuhan_brigadir', 'ricky_rizal', 'terkait', 'sidang', 'tersangka', 'kuat_ruf', 'dugaan', 'ricky', 'putri', 'ferdy_sambo', 'putri_candrawathi', 'perkara', 'richard', 'kuhp', 'richard_eliezer', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['terkait', 'pasal_kuhp', 'keluarga', 'pria', 'korban', 'warga', 'rumah', 'milik', 'ditangkap', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['terkait', 'pemerkosaan', 'andika', 'tni']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polisi', 'hendra', 'tindak_pidana', 'keluarga', 'luka', 'korban', 'tewas', 'warga', 'rumah', 'jalan', 'tim', 'terdakwa', 'masuk']</t>
+  </si>
+  <si>
+    <t>['pidana', 'pemerkosaan', 'polisi', 'polri', 'terkait', 'tindak_pidana', 'pasal_kuhp', 'perempuan', 'pasal', 'andika', 'tni', 'langsung', 'pelaku', 'kuhp']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'mobil', 'putri', 'sidang', 'keluarga', 'eliezer', 'sambo', 'yosua', 'ferdy_sambo', 'jalan', 'putri_candrawathi', 'perempuan', 'rumah', 'langsung', 'persidangan', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'jaksa', 'magelang', 'terkait', 'tersangka', 'keluarga', 'kejadian', 'korban', 'warga', 'rekonstruksi', 'rumah', 'jalan', 'pelaku', 'saudara']</t>
+  </si>
+  <si>
+    <t>['mobil', 'polisi', 'cctv', 'terkait', 'jalan', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['hendra', 'terkait', 'wali', 'warga', 'jalan', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'mengaku', 'polisi', 'saksi', 'kejadian', 'motor', 'korban', 'jalan', 'pria', 'warga', 'hakim', 'milik', 'langsung', 'pelaku', 'polsek', 'masuk']</t>
+  </si>
+  <si>
+    <t>['polsek', 'cctv', 'pria', 'korban', 'tim', 'milik', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pidana', 'hendra', 'bharada', 'cctv', 'polri', 'putri', 'sidang', 'keluarga', 'membunuh', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'perkara', 'richard_eliezer', 'tim', 'terdakwa', 'arif']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'tkp', 'pasal_kuhp', 'masuk', 'pembunuhan', 'kuat_ruf', 'yosua', 'eliezer', 'richard', 'hakim', 'langsung', 'sidang', 'yosua_hutabarat', 'rumah', 'jalan']</t>
+  </si>
+  <si>
+    <t>['jalan', 'masuk']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'polisi', 'jaksa', 'tersangka', 'wali', 'korban', 'motif', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'mengaku', 'polisi', 'pria', 'korban', 'mencuri', 'warga', 'rumah', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'terkait', 'membunuh', 'keluarga', 'langsung', 'saudara', 'hukum']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard_eliezer', 'kuat', 'polri', 'pasal_kuhp', 'kuhp', 'tim', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'ricky_rizal', 'terkait', 'yosua_hutabarat', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pemerkosaan', 'tersangka', 'pria', 'korban', 'warga', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['kuat', 'polisi', 'autopsi', 'pembunuhan', 'diduga', 'ditemukan', 'terkait', 'dugaan', 'luka', 'kejadian', 'korban', 'perempuan', 'tewas', 'warga', 'jenazah', 'rumah', 'pelaku', 'masuk']</t>
+  </si>
+  <si>
+    <t>['cctv', 'kejadian', 'olah_tkp', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'ditemukan', 'terkait', 'keluarga', 'korban', 'jenazah', 'milik', 'motif']</t>
+  </si>
+  <si>
+    <t>['pidana', 'pemerkosaan', 'tersangka', 'pasal', 'andika', 'tni']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'sambo', 'ferdy_sambo', 'perempuan', 'putri_candrawathi', 'richard_eliezer', 'terdakwa', 'persidangan', 'mobil', 'masuk', 'pembunuhan', 'putri', 'yosua', 'eliezer', 'richard', 'langsung', 'sidang', 'yosua_hutabarat', 'rumah', 'motif', 'jalan', 'bharada']</t>
+  </si>
+  <si>
+    <t>['tersangka', 'kejadian', 'motor', 'korban', 'warga', 'rumah', 'langsung', 'pelaku', 'tim', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'diduga', 'terkait', 'dugaan', 'korban', 'perempuan', 'pasal', 'warga', 'rumah', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'polisi', 'tersangka', 'pria', 'korban', 'tewas']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'polisi', 'autopsi', 'terkait', 'tindak_pidana', 'keluarga', 'tersangka', 'kejadian', 'korban', 'tewas', 'langsung', 'olah_tkp', 'pelaku', 'polsek', 'hukum']</t>
+  </si>
+  <si>
+    <t>['polisi', 'saksi', 'putri', 'dugaan', 'juta', 'korban', 'solo', 'olah_tkp', 'tkp', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'tkp', 'pelaku', 'terdakwa', 'kuat', 'jaksa', 'saksi', 'tindak_pidana', 'pasal_kuhp', 'korban', 'perkara', 'kuhp', 'tim', 'rumah_dinas', 'masuk', 'arif', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'pidana', 'ricky_rizal', 'terkait', 'sidang', 'tersangka', 'motif', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['polisi', 'diduga', 'polri', 'terkait', 'hukum']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'magelang', 'polri', 'ricky', 'putri', 'keluarga', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'rumah', 'persidangan', 'saudara', 'masuk']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'polisi', 'terkait', 'kejadian', 'jalan', 'perempuan', 'ditangkap', 'kuhp', 'olah_tkp', 'pelaku', 'polsek', 'masuk']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mobil', 'polisi', 'ditemukan', 'sidang', 'membunuh', 'keluarga', 'korban', 'perempuan', 'tewas', 'warga', 'hakim', 'ditangkap', 'jalan', 'pelaku', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'polisi', 'diduga', 'tindak_pidana', 'dugaan', 'korban', 'perempuan', 'perkara', 'kekerasan_seksual', 'ketiga', 'ditangkap']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'polisi', 'ricky_rizal', 'polri', 'terkait', 'sidang', 'pasal_kuhp', 'yosua_hutabarat', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'perkara', 'hakim', 'kuhp', 'saudara', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuat', 'saksi', 'bharada', 'pasal_kuhp', 'saudara', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'eliezer', 'richard', 'ricky_rizal', 'terkait', 'sidang', 'membunuh', 'yosua_hutabarat', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'tkp', 'cctv', 'putri', 'korban', 'mencuri', 'warga', 'motif', 'ketiga', 'pelaku', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'ditemukan', 'pasal_kuhp', 'korban', 'warga', 'rumah', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['masuk', 'mengaku', 'polisi', 'perampok', 'pria', 'perampokan', 'korban', 'juta', 'warga', 'milik', 'jalan', 'pelaku', 'hukum']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'polisi', 'saksi', 'tersangka', 'keluarga', 'luka', 'korban', 'perempuan', 'warga', 'jenazah', 'rumah']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'polisi', 'terkait', 'luka', 'pria', 'korban', 'pelaku', 'polsek', 'masuk']</t>
+  </si>
+  <si>
+    <t>['tersangka', 'kejadian', 'korban', 'jalan', 'pasal', 'rumah', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pencurian', 'polisi', 'saksi', 'pembunuhan', 'diduga', 'ditemukan', 'polsek', 'perampokan', 'korban', 'tewas', 'rumah', 'langsung', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'mencuri', 'perempuan', 'pasal', 'milik', 'tkp', 'pelaku', 'saksi', 'tindak_pidana', 'kejadian', 'korban', 'ketiga', 'kuhp', 'polsek', 'tim', 'pria', 'langsung', 'agus', 'jalan', 'ditangkap', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'jaksa', 'saksi', 'persidangan', 'hendra', 'pembunuhan_brigadir', 'polri', 'terkait', 'yosua_hutabarat', 'hakim', 'irfan', 'langsung', 'saudara', 'tim', 'terdakwa', 'hukum']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'pasal', 'tewas', 'richard_eliezer', 'jaksa', 'pasal_kuhp', 'rumah_dinas', 'pembunuhan', 'magelang', 'kuat_ruf', 'keluarga', 'eliezer', 'pidana', 'ricky_rizal', 'terkait', 'sidang']</t>
+  </si>
+  <si>
+    <t>['kuat', 'jaksa', 'pembunuhan', 'pembunuhan_brigadir', 'ricky_rizal', 'putri', 'kuat_ruf', 'sidang', 'eliezer', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'richard', 'bharada', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'polisi', 'tersangka', 'perampokan', 'jalan', 'pasal', 'warga', 'milik', 'ditangkap', 'kuhp', 'pelaku', 'tim', 'agus']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polisi', 'diduga', 'ditemukan', 'polri', 'luka', 'pria', 'korban', 'jalan', 'perkara', 'warga', 'langsung', 'tkp', 'polsek']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'luka', 'pasal', 'tni', 'pelaku', 'wali_blitar', 'pasal_kuhp', 'kejadian', 'perampokan', 'korban', 'blitar', 'rumah_dinas', 'masuk', 'santoso', 'perampok', 'langsung', 'terkait', 'wali', 'warga', 'rumah']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'richard_eliezer', 'terdakwa', 'kuat', 'saksi', 'ketiga', 'saudara', 'pembunuhan', 'ricky', 'kuat_ruf', 'yosua', 'richard', 'hakim', 'langsung', 'agus', 'ricky_rizal', 'terkait', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['polisi', 'tersangka', 'perampokan', 'juta', 'jalan', 'milik', 'motor', 'pelaku', 'agus']</t>
+  </si>
+  <si>
+    <t>['diduga', 'terkait', 'tersangka', 'kejadian', 'irfan', 'pencurian']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pemerkosaan', 'polisi', 'keluarga', 'pria', 'warga', 'jalan', 'ditangkap']</t>
+  </si>
+  <si>
+    <t>['pencurian', 'polisi', 'tkp', 'juta', 'ketiga', 'motor', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mengaku', 'polisi', 'pembunuhan_brigadir', 'terkait', 'yosua_hutabarat', 'sambo', 'ferdy_sambo', 'saudara']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pemerkosaan', 'polisi', 'sidang', 'tindak_pidana', 'tersangka', 'korban', 'rumah', 'terdakwa']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'polisi', 'saksi', 'ditemukan', 'tersangka', 'membunuh', 'dugaan', 'luka', 'kejadian', 'korban', 'perkara', 'tewas', 'warga', 'rumah', 'motif', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'diduga', 'polri', 'terkait', 'hukum', 'tindak_pidana', 'korban', 'perempuan', 'pasal', 'andika', 'tni', 'langsung', 'pelaku', 'kuhp']</t>
+  </si>
+  <si>
+    <t>['putri', 'tindak_pidana', 'dugaan', 'kejadian', 'solo', 'milik', 'langsung', 'olah_tkp', 'tkp', 'pencurian', 'masuk']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'langsung', 'pencurian', 'korban', 'warga', 'motor', 'pelaku', 'polsek']</t>
+  </si>
+  <si>
+    <t>['mobil', 'pemerkosaan', 'polisi', 'kejadian', 'pria', 'mencuri', 'warga', 'milik', 'langsung']</t>
+  </si>
+  <si>
+    <t>['polisi', 'saksi', 'tkp', 'ditemukan', 'perampok', 'dugaan', 'wali', 'blitar', 'ditangkap', 'olah_tkp', 'pelaku', 'rumah_dinas']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'keluarga', 'kejadian', 'pria', 'korban', 'rumah', 'pelaku', 'saudara']</t>
+  </si>
+  <si>
+    <t>['pemerkosaan', 'tindak_pidana', 'korban', 'kekerasan_seksual', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pembunuhan', 'polisi', 'saksi', 'diduga', 'magelang', 'terkait', 'membunuh', 'korban', 'motif', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pencurian', 'mobil', 'polisi', 'tindak_pidana', 'pasal_kuhp', 'dugaan', 'tersangka', 'pria', 'juta', 'korban', 'jalan', 'perkara', 'warga', 'milik', 'langsung', 'pelaku', 'polsek']</t>
+  </si>
+  <si>
+    <t>['pidana', 'pembunuhan', 'saksi', 'pembunuhan_brigadir', 'ricky_rizal', 'sidang', 'pasal_kuhp', 'yosua', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'kuhp', 'richard_eliezer']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mobil', 'polisi', 'membunuh', 'luka', 'pria', 'korban', 'milik', 'motif', 'ditangkap', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'milik', 'richard_eliezer', 'terdakwa', 'mobil', 'saksi', 'pasal_kuhp', 'kuhp', 'saudara', 'pembunuhan', 'magelang', 'ricky', 'kuat_ruf', 'yosua', 'richard', 'hakim', 'ricky_rizal', 'sidang', 'yosua_hutabarat', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'cctv', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'jaksa', 'saksi', 'polri', 'rumah_dinas', 'arif', 'pembunuhan', 'yosua', 'chuck', 'hendra', 'terkait', 'sidang', 'yosua_hutabarat']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'pencurian', 'mengaku', 'diduga', 'perampok', 'pria', 'perampokan', 'korban', 'pasal', 'ditangkap', 'pelaku', 'polsek', 'saudara']</t>
+  </si>
+  <si>
+    <t>['pembunuhan', 'mobil', 'polisi', 'ditemukan', 'tersangka', 'membunuh', 'korban', 'perempuan', 'rekonstruksi', 'milik', 'ketiga', 'tkp']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'cctv', 'sambo', 'ferdy_sambo', 'pasal', 'terdakwa', 'saksi', 'polri', 'perkara', 'kuhp', 'tim', 'saudara', 'hukum', 'pembunuhan', 'yosua', 'eliezer', 'richard', 'chuck', 'tersangka', 'yosua_hutabarat', 'bharada']</t>
+  </si>
+  <si>
+    <t>['saksi', 'putri', 'sidang', 'eliezer', 'sambo', 'kejadian', 'ferdy_sambo', 'putri_candrawathi', 'hakim', 'bharada', 'saudara', 'masuk']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'pembunuhan_brigadir', 'sambo', 'ferdy_sambo', 'putri_candrawathi', 'terdakwa', 'polri', 'saudara', 'masuk', 'pembunuhan', 'magelang', 'ricky', 'putri', 'keluarga', 'hakim', 'ricky_rizal', 'yosua_hutabarat', 'rumah', 'persidangan']</t>
+  </si>
+  <si>
+    <t>['berinisial', 'mengaku', 'polisi', 'saksi', 'diduga', 'ditemukan', 'dugaan', 'luka', 'korban', 'jalan', 'perempuan', 'tewas', 'langsung', 'masuk']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16893,6 +16887,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -16930,11 +16932,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17240,8 +17243,8 @@
   <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17286,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -17312,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -17338,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -17364,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -17390,7 +17393,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -17416,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>938</v>
+        <v>755</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -17442,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -17468,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -17494,7 +17497,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -17520,7 +17523,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -17546,7 +17549,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>939</v>
+        <v>760</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -17572,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -17598,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -17624,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -17650,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -17676,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -17702,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -17728,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -17754,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -17780,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -17806,7 +17809,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>940</v>
+        <v>770</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -17832,7 +17835,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -17858,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -17884,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>941</v>
+        <v>773</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -17910,7 +17913,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -17936,7 +17939,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -17962,7 +17965,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>942</v>
+        <v>776</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -17988,1064 +17991,1064 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
+        <v>777</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>91</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
         <v>93</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>778</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>94</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>787</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>779</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>97</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>788</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>780</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>100</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>943</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
         <v>102</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>781</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>103</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>789</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>782</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>106</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>790</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
         <v>108</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>783</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>109</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>791</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
         <v>111</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>784</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>112</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>792</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
         <v>114</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>785</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>115</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>793</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
         <v>117</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>786</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>118</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>794</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>787</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>121</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>944</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
         <v>123</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>788</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>124</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>795</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
         <v>126</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>789</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>127</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>796</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
         <v>129</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>790</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>130</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>797</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
         <v>132</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>791</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>133</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>798</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
         <v>135</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>792</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
         <v>136</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>799</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
         <v>138</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>793</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>139</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>800</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
         <v>141</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>794</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>801</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
         <v>144</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>795</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>145</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>802</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
         <v>147</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>796</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>148</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>803</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
         <v>150</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>797</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>151</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>804</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
         <v>153</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>798</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>154</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>805</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
         <v>156</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>799</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
         <v>157</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>945</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
         <v>159</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>800</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
         <v>160</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>806</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>162</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>801</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
         <v>163</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>807</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
         <v>165</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>802</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
         <v>166</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>808</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s">
         <v>168</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>803</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
         <v>169</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>809</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
         <v>171</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>804</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
         <v>172</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>810</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
         <v>174</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>805</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
         <v>175</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>811</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
         <v>177</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>806</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>179</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>807</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
         <v>181</v>
-      </c>
-      <c r="B59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>812</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>808</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
         <v>184</v>
-      </c>
-      <c r="B60" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>813</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>809</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
         <v>187</v>
-      </c>
-      <c r="B61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>946</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>810</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>190</v>
-      </c>
-      <c r="B62" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>814</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>811</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
         <v>193</v>
-      </c>
-      <c r="B63" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>815</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>812</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
         <v>196</v>
-      </c>
-      <c r="B64" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>816</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>813</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
         <v>199</v>
-      </c>
-      <c r="B65" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>947</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>814</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
         <v>202</v>
-      </c>
-      <c r="B66" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>817</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>815</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
         <v>205</v>
-      </c>
-      <c r="B67" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>818</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>816</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
         <v>208</v>
-      </c>
-      <c r="B68" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>948</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>817</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
         <v>211</v>
-      </c>
-      <c r="B69" t="s">
-        <v>212</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>213</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -19054,7 +19057,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>949</v>
+        <v>818</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -19063,15 +19066,15 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -19089,15 +19092,15 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -19106,7 +19109,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>950</v>
+        <v>820</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -19115,15 +19118,15 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -19132,7 +19135,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -19141,15 +19144,15 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -19158,7 +19161,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -19167,15 +19170,15 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -19184,7 +19187,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -19193,15 +19196,15 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -19210,7 +19213,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -19219,15 +19222,15 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -19236,7 +19239,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>951</v>
+        <v>825</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -19245,15 +19248,15 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -19262,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>952</v>
+        <v>826</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -19271,15 +19274,15 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -19288,7 +19291,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>953</v>
+        <v>827</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -19297,15 +19300,15 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -19314,7 +19317,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>954</v>
+        <v>828</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -19323,15 +19326,15 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -19340,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -19349,15 +19352,15 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -19366,7 +19369,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -19375,15 +19378,15 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -19392,7 +19395,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>955</v>
+        <v>831</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -19401,15 +19404,15 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -19418,7 +19421,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -19427,15 +19430,15 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -19444,7 +19447,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>956</v>
+        <v>833</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -19453,15 +19456,15 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -19470,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -19479,15 +19482,15 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -19496,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -19505,15 +19508,15 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -19522,7 +19525,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -19531,15 +19534,15 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -19548,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>957</v>
+        <v>837</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -19557,15 +19560,15 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -19574,7 +19577,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -19583,15 +19586,15 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -19600,7 +19603,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -19609,15 +19612,15 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -19626,7 +19629,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>958</v>
+        <v>840</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -19635,15 +19638,15 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -19652,7 +19655,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>959</v>
+        <v>841</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -19661,15 +19664,15 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -19678,7 +19681,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -19687,15 +19690,15 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -19704,7 +19707,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>960</v>
+        <v>843</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -19713,15 +19716,15 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -19730,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -19739,15 +19742,15 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -19756,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>961</v>
+        <v>845</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -19765,15 +19768,15 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -19782,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -19791,15 +19794,15 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -19808,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -19817,15 +19820,15 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -19834,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -19843,15 +19846,15 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -19860,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -19869,15 +19872,15 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B102" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -19886,7 +19889,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -19895,15 +19898,15 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B103" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -19912,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -19921,15 +19924,15 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B104" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -19938,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -19947,15 +19950,15 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -19964,7 +19967,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -19973,15 +19976,15 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B106" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -19990,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -19999,15 +20002,15 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B107" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -20016,7 +20019,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -20025,15 +20028,15 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -20042,7 +20045,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>331</v>
+        <v>856</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -20051,15 +20054,15 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B109" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -20068,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -20077,15 +20080,15 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B110" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -20094,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -20103,15 +20106,15 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B111" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -20120,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -20129,15 +20132,15 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B112" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -20146,7 +20149,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -20155,15 +20158,15 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -20172,7 +20175,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -20181,15 +20184,15 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B114" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -20198,7 +20201,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -20207,15 +20210,15 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -20224,7 +20227,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -20233,15 +20236,15 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B116" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -20250,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -20259,15 +20262,15 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -20276,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -20285,15 +20288,15 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -20302,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>362</v>
+        <v>866</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -20311,15 +20314,15 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -20328,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -20337,15 +20340,15 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B120" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -20354,7 +20357,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>762</v>
+        <v>868</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -20363,15 +20366,15 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B121" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -20380,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -20389,15 +20392,15 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B122" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -20406,7 +20409,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -20415,15 +20418,15 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -20432,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -20441,15 +20444,15 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B124" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -20458,7 +20461,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -20467,15 +20470,15 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -20484,7 +20487,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -20493,15 +20496,15 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B126" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -20510,7 +20513,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -20519,15 +20522,15 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B127" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -20536,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -20545,15 +20548,15 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -20562,7 +20565,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>393</v>
+        <v>876</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -20571,15 +20574,15 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -20588,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>962</v>
+        <v>877</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -20597,15 +20600,15 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B130" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -20614,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>963</v>
+        <v>878</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -20623,15 +20626,15 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B131" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -20640,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -20649,15 +20652,15 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B132" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -20666,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -20675,15 +20678,15 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B133" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -20692,7 +20695,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>964</v>
+        <v>881</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -20701,15 +20704,15 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B134" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -20718,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -20727,15 +20730,15 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -20744,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -20753,15 +20756,15 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B136" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -20770,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -20779,15 +20782,15 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B137" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -20796,7 +20799,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -20805,15 +20808,15 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -20822,7 +20825,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -20831,15 +20834,15 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B139" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -20848,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -20857,15 +20860,15 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B140" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -20874,7 +20877,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -20883,15 +20886,15 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B141" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -20900,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -20909,15 +20912,15 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B142" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -20926,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>965</v>
+        <v>890</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -20935,15 +20938,15 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B143" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -20952,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>966</v>
+        <v>891</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -20961,15 +20964,15 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B144" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -20978,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -20987,15 +20990,15 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B145" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -21004,7 +21007,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>967</v>
+        <v>893</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -21013,15 +21016,15 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B146" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -21030,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -21039,15 +21042,15 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B147" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -21056,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -21065,15 +21068,15 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B148" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -21082,7 +21085,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -21091,15 +21094,15 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B149" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -21108,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>968</v>
+        <v>897</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -21117,15 +21120,15 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B150" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -21134,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -21143,15 +21146,15 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B151" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -21160,7 +21163,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -21169,15 +21172,15 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -21186,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -21195,15 +21198,15 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B153" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -21212,7 +21215,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -21221,15 +21224,15 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B154" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -21238,7 +21241,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -21247,15 +21250,15 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B155" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -21264,7 +21267,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -21273,15 +21276,15 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B156" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -21290,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -21299,15 +21302,15 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B157" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -21316,7 +21319,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -21325,15 +21328,15 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B158" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -21342,7 +21345,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>969</v>
+        <v>906</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -21351,15 +21354,15 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B159" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -21368,7 +21371,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -21377,15 +21380,15 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B160" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -21394,7 +21397,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>970</v>
+        <v>908</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -21403,15 +21406,15 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B161" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -21420,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -21429,15 +21432,15 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B162" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -21446,7 +21449,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>971</v>
+        <v>910</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -21455,15 +21458,15 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B163" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -21472,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -21481,15 +21484,15 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B164" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -21498,7 +21501,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -21507,15 +21510,15 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B165" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -21524,7 +21527,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -21533,15 +21536,15 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B166" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -21550,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -21559,15 +21562,15 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B167" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -21576,7 +21579,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -21585,15 +21588,15 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B168" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -21602,7 +21605,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>972</v>
+        <v>916</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -21611,15 +21614,15 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B169" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -21628,7 +21631,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>890</v>
+        <v>917</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -21637,15 +21640,15 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B170" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -21654,7 +21657,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>891</v>
+        <v>918</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -21663,15 +21666,15 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B171" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -21680,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>892</v>
+        <v>919</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -21689,15 +21692,15 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B172" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -21706,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>763</v>
+        <v>920</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -21715,15 +21718,15 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B173" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -21732,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -21741,15 +21744,15 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B174" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -21758,7 +21761,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -21767,15 +21770,15 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B175" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -21784,7 +21787,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -21793,15 +21796,15 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B176" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -21810,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -21819,15 +21822,15 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B177" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -21836,7 +21839,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -21845,15 +21848,15 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B178" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -21862,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>973</v>
+        <v>926</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -21871,15 +21874,15 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B179" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -21888,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -21897,15 +21900,15 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B180" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -21914,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>899</v>
+        <v>928</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -21923,15 +21926,15 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B181" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -21940,7 +21943,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>900</v>
+        <v>929</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -21949,15 +21952,15 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B182" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -21966,7 +21969,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>901</v>
+        <v>930</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -21975,15 +21978,15 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B183" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -21992,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>559</v>
+        <v>931</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -22001,15 +22004,15 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B184" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -22018,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -22027,15 +22030,15 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B185" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -22044,7 +22047,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>902</v>
+        <v>933</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -22053,15 +22056,15 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B186" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -22070,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>569</v>
+        <v>934</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -22079,15 +22082,15 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -22096,7 +22099,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>903</v>
+        <v>801</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -22105,15 +22108,15 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B188" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -22122,7 +22125,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>904</v>
+        <v>935</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -22131,15 +22134,15 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B189" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -22148,7 +22151,7 @@
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>975</v>
+        <v>936</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -22157,15 +22160,15 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B190" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -22174,7 +22177,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -22183,15 +22186,15 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B191" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -22200,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>977</v>
+        <v>938</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -22209,15 +22212,15 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B192" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -22226,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -22235,15 +22238,15 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B193" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -22252,7 +22255,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>764</v>
+        <v>940</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -22261,15 +22264,15 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B194" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -22278,7 +22281,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>978</v>
+        <v>941</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -22287,15 +22290,15 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B195" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -22304,7 +22307,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -22313,15 +22316,15 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B196" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -22330,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>907</v>
+        <v>943</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -22339,15 +22342,15 @@
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B197" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -22356,7 +22359,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>979</v>
+        <v>944</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -22365,15 +22368,15 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B198" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -22382,7 +22385,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>908</v>
+        <v>945</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -22391,15 +22394,15 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B199" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -22408,7 +22411,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>980</v>
+        <v>946</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -22417,15 +22420,15 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B200" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -22434,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>981</v>
+        <v>947</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -22443,15 +22446,15 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B201" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -22460,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>765</v>
+        <v>948</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -22469,15 +22472,15 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B202" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -22486,7 +22489,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -22495,15 +22498,15 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B203" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -22512,7 +22515,7 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>909</v>
+        <v>950</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -22521,15 +22524,15 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B204" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -22538,7 +22541,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>983</v>
+        <v>771</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -22547,15 +22550,15 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B205" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -22564,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -22573,15 +22576,15 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B206" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -22590,7 +22593,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>910</v>
+        <v>952</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -22599,15 +22602,15 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B207" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -22616,7 +22619,7 @@
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>911</v>
+        <v>953</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -22625,15 +22628,15 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B208" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -22642,7 +22645,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>912</v>
+        <v>954</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -22651,15 +22654,15 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B209" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -22668,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>985</v>
+        <v>955</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -22677,15 +22680,15 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B210" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -22694,7 +22697,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>640</v>
+        <v>956</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -22703,15 +22706,15 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B211" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -22720,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>913</v>
+        <v>957</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -22729,15 +22732,15 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B212" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -22746,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>914</v>
+        <v>958</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -22755,15 +22758,15 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B213" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -22772,7 +22775,7 @@
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>915</v>
+        <v>959</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -22781,15 +22784,15 @@
         <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B214" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -22798,7 +22801,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -22807,15 +22810,15 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B215" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -22824,7 +22827,7 @@
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -22833,15 +22836,15 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B216" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -22850,7 +22853,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -22859,15 +22862,15 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B217" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -22876,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -22885,15 +22888,15 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B218" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -22902,7 +22905,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>916</v>
+        <v>964</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -22911,15 +22914,15 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B219" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -22928,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -22937,15 +22940,15 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B220" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -22954,7 +22957,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>917</v>
+        <v>966</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -22963,15 +22966,15 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B221" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -22980,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>918</v>
+        <v>967</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -22989,15 +22992,15 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B222" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -23006,7 +23009,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -23015,15 +23018,15 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B223" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -23032,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -23041,15 +23044,15 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B224" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -23058,7 +23061,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>919</v>
+        <v>970</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -23067,15 +23070,15 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B225" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -23084,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>920</v>
+        <v>971</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -23093,15 +23096,15 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B226" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -23110,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>921</v>
+        <v>972</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -23119,15 +23122,15 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B227" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -23136,7 +23139,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>993</v>
+        <v>973</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -23145,15 +23148,15 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B228" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -23162,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>922</v>
+        <v>974</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -23171,15 +23174,15 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B229" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -23188,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>923</v>
+        <v>975</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -23197,15 +23200,15 @@
         <v>0</v>
       </c>
       <c r="H229" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B230" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -23214,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>924</v>
+        <v>976</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -23223,15 +23226,15 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B231" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -23240,7 +23243,7 @@
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>925</v>
+        <v>977</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -23249,15 +23252,15 @@
         <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B232" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -23266,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>926</v>
+        <v>978</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -23275,15 +23278,15 @@
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B233" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -23292,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>927</v>
+        <v>979</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -23301,15 +23304,15 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B234" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -23318,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>928</v>
+        <v>980</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -23327,15 +23330,15 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B235" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -23344,24 +23347,24 @@
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>929</v>
+        <v>981</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B236" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -23370,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="s">
-        <v>719</v>
+        <v>982</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -23379,15 +23382,15 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B237" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -23396,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>930</v>
+        <v>983</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -23405,15 +23408,15 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B238" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -23422,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>931</v>
+        <v>984</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -23431,15 +23434,15 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B239" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -23448,7 +23451,7 @@
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>932</v>
+        <v>985</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -23457,15 +23460,15 @@
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B240" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -23474,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>933</v>
+        <v>986</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -23483,15 +23486,15 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B241" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -23500,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -23509,15 +23512,15 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B242" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -23526,7 +23529,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -23535,15 +23538,15 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B243" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -23552,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>934</v>
+        <v>989</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -23561,15 +23564,15 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B244" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -23578,7 +23581,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="s">
-        <v>935</v>
+        <v>990</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -23587,15 +23590,15 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B245" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -23604,7 +23607,7 @@
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>936</v>
+        <v>991</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -23613,15 +23616,15 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B246" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -23630,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>937</v>
+        <v>992</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -23639,15 +23642,15 @@
         <v>0</v>
       </c>
       <c r="H246" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B247" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -23656,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>753</v>
+        <v>993</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -23665,15 +23668,15 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B248" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -23682,7 +23685,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -23691,15 +23694,15 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B249" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -23708,7 +23711,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -23717,10 +23720,11 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>